--- a/data_storage/excel_db/UserTraining.xlsx
+++ b/data_storage/excel_db/UserTraining.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="4">
   <si>
     <t>polina.vngrd</t>
   </si>
@@ -72,9 +72,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -355,15 +356,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C542"/>
+  <dimension ref="A1:C572"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A558" workbookViewId="0">
+      <selection activeCell="B576" sqref="B573:B576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="10.5546875" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -373,7 +374,7 @@
       <c r="B1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -384,8 +385,8 @@
       <c r="B2">
         <v>1637</v>
       </c>
-      <c r="C2" s="1">
-        <v>45003</v>
+      <c r="C2" s="2">
+        <v>44700</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -395,8 +396,8 @@
       <c r="B3">
         <v>1660</v>
       </c>
-      <c r="C3" s="1">
-        <v>45004</v>
+      <c r="C3" s="2">
+        <v>44701</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -406,8 +407,8 @@
       <c r="B4">
         <v>1698</v>
       </c>
-      <c r="C4" s="1">
-        <v>45005</v>
+      <c r="C4" s="2">
+        <v>44702</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -417,8 +418,8 @@
       <c r="B5">
         <v>1656</v>
       </c>
-      <c r="C5" s="1">
-        <v>45006</v>
+      <c r="C5" s="2">
+        <v>44703</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -428,8 +429,8 @@
       <c r="B6">
         <v>2076</v>
       </c>
-      <c r="C6" s="1">
-        <v>45007</v>
+      <c r="C6" s="2">
+        <v>44704</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -439,8 +440,8 @@
       <c r="B7">
         <v>2021</v>
       </c>
-      <c r="C7" s="1">
-        <v>45008</v>
+      <c r="C7" s="2">
+        <v>44705</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -450,8 +451,8 @@
       <c r="B8">
         <v>1773</v>
       </c>
-      <c r="C8" s="1">
-        <v>45009</v>
+      <c r="C8" s="2">
+        <v>44706</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -461,8 +462,8 @@
       <c r="B9">
         <v>1693</v>
       </c>
-      <c r="C9" s="1">
-        <v>45010</v>
+      <c r="C9" s="2">
+        <v>44707</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -472,8 +473,8 @@
       <c r="B10">
         <v>1847</v>
       </c>
-      <c r="C10" s="1">
-        <v>45011</v>
+      <c r="C10" s="2">
+        <v>44708</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -483,8 +484,8 @@
       <c r="B11">
         <v>1796</v>
       </c>
-      <c r="C11" s="1">
-        <v>45012</v>
+      <c r="C11" s="2">
+        <v>44709</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -494,8 +495,8 @@
       <c r="B12">
         <v>2022</v>
       </c>
-      <c r="C12" s="1">
-        <v>45013</v>
+      <c r="C12" s="2">
+        <v>44710</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -505,8 +506,8 @@
       <c r="B13">
         <v>1558</v>
       </c>
-      <c r="C13" s="1">
-        <v>45014</v>
+      <c r="C13" s="2">
+        <v>44711</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -516,8 +517,8 @@
       <c r="B14">
         <v>1903</v>
       </c>
-      <c r="C14" s="1">
-        <v>45015</v>
+      <c r="C14" s="2">
+        <v>44712</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -527,8 +528,8 @@
       <c r="B15">
         <v>1886</v>
       </c>
-      <c r="C15" s="1">
-        <v>45016</v>
+      <c r="C15" s="2">
+        <v>44713</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -538,8 +539,8 @@
       <c r="B16">
         <v>1736</v>
       </c>
-      <c r="C16" s="1">
-        <v>45017</v>
+      <c r="C16" s="2">
+        <v>44714</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -549,8 +550,8 @@
       <c r="B17">
         <v>2077</v>
       </c>
-      <c r="C17" s="1">
-        <v>45018</v>
+      <c r="C17" s="2">
+        <v>44715</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -560,8 +561,8 @@
       <c r="B18">
         <v>1891</v>
       </c>
-      <c r="C18" s="1">
-        <v>45019</v>
+      <c r="C18" s="2">
+        <v>44716</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -571,8 +572,8 @@
       <c r="B19">
         <v>1870</v>
       </c>
-      <c r="C19" s="1">
-        <v>45020</v>
+      <c r="C19" s="2">
+        <v>44717</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -582,8 +583,8 @@
       <c r="B20">
         <v>1976</v>
       </c>
-      <c r="C20" s="1">
-        <v>45021</v>
+      <c r="C20" s="2">
+        <v>44718</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -593,8 +594,8 @@
       <c r="B21">
         <v>1543</v>
       </c>
-      <c r="C21" s="1">
-        <v>45022</v>
+      <c r="C21" s="2">
+        <v>44719</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -604,8 +605,8 @@
       <c r="B22">
         <v>1567</v>
       </c>
-      <c r="C22" s="1">
-        <v>45023</v>
+      <c r="C22" s="2">
+        <v>44720</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -615,8 +616,8 @@
       <c r="B23">
         <v>1625</v>
       </c>
-      <c r="C23" s="1">
-        <v>45024</v>
+      <c r="C23" s="2">
+        <v>44721</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -626,8 +627,8 @@
       <c r="B24">
         <v>1727</v>
       </c>
-      <c r="C24" s="1">
-        <v>45025</v>
+      <c r="C24" s="2">
+        <v>44722</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -637,8 +638,8 @@
       <c r="B25">
         <v>2027</v>
       </c>
-      <c r="C25" s="1">
-        <v>45026</v>
+      <c r="C25" s="2">
+        <v>44723</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -648,8 +649,8 @@
       <c r="B26">
         <v>1509</v>
       </c>
-      <c r="C26" s="1">
-        <v>45027</v>
+      <c r="C26" s="2">
+        <v>44724</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -659,8 +660,8 @@
       <c r="B27">
         <v>2041</v>
       </c>
-      <c r="C27" s="1">
-        <v>45028</v>
+      <c r="C27" s="2">
+        <v>44725</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -670,8 +671,8 @@
       <c r="B28">
         <v>1976</v>
       </c>
-      <c r="C28" s="1">
-        <v>45029</v>
+      <c r="C28" s="2">
+        <v>44726</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -681,8 +682,8 @@
       <c r="B29">
         <v>1756</v>
       </c>
-      <c r="C29" s="1">
-        <v>45030</v>
+      <c r="C29" s="2">
+        <v>44727</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -692,8 +693,8 @@
       <c r="B30">
         <v>1753</v>
       </c>
-      <c r="C30" s="1">
-        <v>45031</v>
+      <c r="C30" s="2">
+        <v>44728</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -703,8 +704,8 @@
       <c r="B31">
         <v>1765</v>
       </c>
-      <c r="C31" s="1">
-        <v>45032</v>
+      <c r="C31" s="2">
+        <v>44729</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -714,8 +715,8 @@
       <c r="B32">
         <v>1711</v>
       </c>
-      <c r="C32" s="1">
-        <v>45033</v>
+      <c r="C32" s="2">
+        <v>44730</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -725,8 +726,8 @@
       <c r="B33">
         <v>1690</v>
       </c>
-      <c r="C33" s="1">
-        <v>45034</v>
+      <c r="C33" s="2">
+        <v>44731</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -736,8 +737,8 @@
       <c r="B34">
         <v>1696</v>
       </c>
-      <c r="C34" s="1">
-        <v>45035</v>
+      <c r="C34" s="2">
+        <v>44732</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -747,8 +748,8 @@
       <c r="B35">
         <v>1640</v>
       </c>
-      <c r="C35" s="1">
-        <v>45036</v>
+      <c r="C35" s="2">
+        <v>44733</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -758,8 +759,8 @@
       <c r="B36">
         <v>1636</v>
       </c>
-      <c r="C36" s="1">
-        <v>45037</v>
+      <c r="C36" s="2">
+        <v>44734</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -769,8 +770,8 @@
       <c r="B37">
         <v>1567</v>
       </c>
-      <c r="C37" s="1">
-        <v>45038</v>
+      <c r="C37" s="2">
+        <v>44735</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -780,8 +781,8 @@
       <c r="B38">
         <v>1553</v>
       </c>
-      <c r="C38" s="1">
-        <v>45039</v>
+      <c r="C38" s="2">
+        <v>44736</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -791,8 +792,8 @@
       <c r="B39">
         <v>1716</v>
       </c>
-      <c r="C39" s="1">
-        <v>45040</v>
+      <c r="C39" s="2">
+        <v>44737</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -802,8 +803,8 @@
       <c r="B40">
         <v>1737</v>
       </c>
-      <c r="C40" s="1">
-        <v>45041</v>
+      <c r="C40" s="2">
+        <v>44738</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -813,8 +814,8 @@
       <c r="B41">
         <v>1794</v>
       </c>
-      <c r="C41" s="1">
-        <v>45042</v>
+      <c r="C41" s="2">
+        <v>44739</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -824,8 +825,8 @@
       <c r="B42">
         <v>1764</v>
       </c>
-      <c r="C42" s="1">
-        <v>45043</v>
+      <c r="C42" s="2">
+        <v>44740</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -835,8 +836,8 @@
       <c r="B43">
         <v>1846</v>
       </c>
-      <c r="C43" s="1">
-        <v>45044</v>
+      <c r="C43" s="2">
+        <v>44741</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -846,8 +847,8 @@
       <c r="B44">
         <v>1513</v>
       </c>
-      <c r="C44" s="1">
-        <v>45045</v>
+      <c r="C44" s="2">
+        <v>44742</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -857,8 +858,8 @@
       <c r="B45">
         <v>1759</v>
       </c>
-      <c r="C45" s="1">
-        <v>45046</v>
+      <c r="C45" s="2">
+        <v>44743</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -868,8 +869,8 @@
       <c r="B46">
         <v>1504</v>
       </c>
-      <c r="C46" s="1">
-        <v>45047</v>
+      <c r="C46" s="2">
+        <v>44744</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -879,8 +880,8 @@
       <c r="B47">
         <v>1705</v>
       </c>
-      <c r="C47" s="1">
-        <v>45048</v>
+      <c r="C47" s="2">
+        <v>44745</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -890,8 +891,8 @@
       <c r="B48">
         <v>2063</v>
       </c>
-      <c r="C48" s="1">
-        <v>45049</v>
+      <c r="C48" s="2">
+        <v>44746</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -901,8 +902,8 @@
       <c r="B49">
         <v>1573</v>
       </c>
-      <c r="C49" s="1">
-        <v>45050</v>
+      <c r="C49" s="2">
+        <v>44747</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -912,8 +913,8 @@
       <c r="B50">
         <v>2061</v>
       </c>
-      <c r="C50" s="1">
-        <v>45051</v>
+      <c r="C50" s="2">
+        <v>44748</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
@@ -923,8 +924,8 @@
       <c r="B51">
         <v>1774</v>
       </c>
-      <c r="C51" s="1">
-        <v>45052</v>
+      <c r="C51" s="2">
+        <v>44749</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
@@ -934,8 +935,8 @@
       <c r="B52">
         <v>1869</v>
       </c>
-      <c r="C52" s="1">
-        <v>45053</v>
+      <c r="C52" s="2">
+        <v>44750</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -945,8 +946,8 @@
       <c r="B53">
         <v>1859</v>
       </c>
-      <c r="C53" s="1">
-        <v>45054</v>
+      <c r="C53" s="2">
+        <v>44751</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
@@ -956,8 +957,8 @@
       <c r="B54">
         <v>2052</v>
       </c>
-      <c r="C54" s="1">
-        <v>45055</v>
+      <c r="C54" s="2">
+        <v>44752</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
@@ -967,8 +968,8 @@
       <c r="B55">
         <v>1922</v>
       </c>
-      <c r="C55" s="1">
-        <v>45056</v>
+      <c r="C55" s="2">
+        <v>44753</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
@@ -978,8 +979,8 @@
       <c r="B56">
         <v>1963</v>
       </c>
-      <c r="C56" s="1">
-        <v>45057</v>
+      <c r="C56" s="2">
+        <v>44754</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
@@ -989,8 +990,8 @@
       <c r="B57">
         <v>1685</v>
       </c>
-      <c r="C57" s="1">
-        <v>45058</v>
+      <c r="C57" s="2">
+        <v>44755</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
@@ -1000,8 +1001,8 @@
       <c r="B58">
         <v>1571</v>
       </c>
-      <c r="C58" s="1">
-        <v>45059</v>
+      <c r="C58" s="2">
+        <v>44756</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
@@ -1011,8 +1012,8 @@
       <c r="B59">
         <v>1549</v>
       </c>
-      <c r="C59" s="1">
-        <v>45060</v>
+      <c r="C59" s="2">
+        <v>44757</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
@@ -1022,8 +1023,8 @@
       <c r="B60">
         <v>1634</v>
       </c>
-      <c r="C60" s="1">
-        <v>45061</v>
+      <c r="C60" s="2">
+        <v>44758</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
@@ -1033,8 +1034,8 @@
       <c r="B61">
         <v>1705</v>
       </c>
-      <c r="C61" s="1">
-        <v>45062</v>
+      <c r="C61" s="2">
+        <v>44759</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
@@ -1044,8 +1045,8 @@
       <c r="B62">
         <v>2062</v>
       </c>
-      <c r="C62" s="1">
-        <v>45063</v>
+      <c r="C62" s="2">
+        <v>44760</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
@@ -1055,8 +1056,8 @@
       <c r="B63">
         <v>1624</v>
       </c>
-      <c r="C63" s="1">
-        <v>45064</v>
+      <c r="C63" s="2">
+        <v>44761</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
@@ -1066,8 +1067,8 @@
       <c r="B64">
         <v>2031</v>
       </c>
-      <c r="C64" s="1">
-        <v>45065</v>
+      <c r="C64" s="2">
+        <v>44762</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
@@ -1077,8 +1078,8 @@
       <c r="B65">
         <v>1719</v>
       </c>
-      <c r="C65" s="1">
-        <v>45066</v>
+      <c r="C65" s="2">
+        <v>44763</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
@@ -1088,8 +1089,8 @@
       <c r="B66">
         <v>2048</v>
       </c>
-      <c r="C66" s="1">
-        <v>45067</v>
+      <c r="C66" s="2">
+        <v>44764</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
@@ -1099,8 +1100,8 @@
       <c r="B67">
         <v>1681</v>
       </c>
-      <c r="C67" s="1">
-        <v>45068</v>
+      <c r="C67" s="2">
+        <v>44765</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
@@ -1110,8 +1111,8 @@
       <c r="B68">
         <v>1862</v>
       </c>
-      <c r="C68" s="1">
-        <v>45069</v>
+      <c r="C68" s="2">
+        <v>44766</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
@@ -1121,8 +1122,8 @@
       <c r="B69">
         <v>1909</v>
       </c>
-      <c r="C69" s="1">
-        <v>45070</v>
+      <c r="C69" s="2">
+        <v>44767</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
@@ -1132,8 +1133,8 @@
       <c r="B70">
         <v>1562</v>
       </c>
-      <c r="C70" s="1">
-        <v>45071</v>
+      <c r="C70" s="2">
+        <v>44768</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
@@ -1143,8 +1144,8 @@
       <c r="B71">
         <v>1965</v>
       </c>
-      <c r="C71" s="1">
-        <v>45072</v>
+      <c r="C71" s="2">
+        <v>44769</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
@@ -1154,8 +1155,8 @@
       <c r="B72">
         <v>1837</v>
       </c>
-      <c r="C72" s="1">
-        <v>45073</v>
+      <c r="C72" s="2">
+        <v>44770</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
@@ -1165,8 +1166,8 @@
       <c r="B73">
         <v>1723</v>
       </c>
-      <c r="C73" s="1">
-        <v>45074</v>
+      <c r="C73" s="2">
+        <v>44771</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
@@ -1176,8 +1177,8 @@
       <c r="B74">
         <v>1703</v>
       </c>
-      <c r="C74" s="1">
-        <v>45075</v>
+      <c r="C74" s="2">
+        <v>44772</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
@@ -1187,8 +1188,8 @@
       <c r="B75">
         <v>1679</v>
       </c>
-      <c r="C75" s="1">
-        <v>45076</v>
+      <c r="C75" s="2">
+        <v>44773</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
@@ -1198,8 +1199,8 @@
       <c r="B76">
         <v>1750</v>
       </c>
-      <c r="C76" s="1">
-        <v>45077</v>
+      <c r="C76" s="2">
+        <v>44774</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
@@ -1209,8 +1210,8 @@
       <c r="B77">
         <v>2001</v>
       </c>
-      <c r="C77" s="1">
-        <v>45078</v>
+      <c r="C77" s="2">
+        <v>44775</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
@@ -1220,8 +1221,8 @@
       <c r="B78">
         <v>2072</v>
       </c>
-      <c r="C78" s="1">
-        <v>45079</v>
+      <c r="C78" s="2">
+        <v>44776</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
@@ -1231,8 +1232,8 @@
       <c r="B79">
         <v>1528</v>
       </c>
-      <c r="C79" s="1">
-        <v>45080</v>
+      <c r="C79" s="2">
+        <v>44777</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
@@ -1242,8 +1243,8 @@
       <c r="B80">
         <v>1688</v>
       </c>
-      <c r="C80" s="1">
-        <v>45081</v>
+      <c r="C80" s="2">
+        <v>44778</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
@@ -1253,8 +1254,8 @@
       <c r="B81">
         <v>1884</v>
       </c>
-      <c r="C81" s="1">
-        <v>45082</v>
+      <c r="C81" s="2">
+        <v>44779</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
@@ -1264,8 +1265,8 @@
       <c r="B82">
         <v>1585</v>
       </c>
-      <c r="C82" s="1">
-        <v>45083</v>
+      <c r="C82" s="2">
+        <v>44780</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
@@ -1275,8 +1276,8 @@
       <c r="B83">
         <v>1926</v>
       </c>
-      <c r="C83" s="1">
-        <v>45084</v>
+      <c r="C83" s="2">
+        <v>44781</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
@@ -1286,8 +1287,8 @@
       <c r="B84">
         <v>2003</v>
       </c>
-      <c r="C84" s="1">
-        <v>45085</v>
+      <c r="C84" s="2">
+        <v>44782</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
@@ -1297,8 +1298,8 @@
       <c r="B85">
         <v>2028</v>
       </c>
-      <c r="C85" s="1">
-        <v>45086</v>
+      <c r="C85" s="2">
+        <v>44783</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
@@ -1308,8 +1309,8 @@
       <c r="B86">
         <v>1505</v>
       </c>
-      <c r="C86" s="1">
-        <v>45087</v>
+      <c r="C86" s="2">
+        <v>44784</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
@@ -1319,8 +1320,8 @@
       <c r="B87">
         <v>2031</v>
       </c>
-      <c r="C87" s="1">
-        <v>45088</v>
+      <c r="C87" s="2">
+        <v>44785</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
@@ -1330,8 +1331,8 @@
       <c r="B88">
         <v>1974</v>
       </c>
-      <c r="C88" s="1">
-        <v>45089</v>
+      <c r="C88" s="2">
+        <v>44786</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
@@ -1341,8 +1342,8 @@
       <c r="B89">
         <v>1863</v>
       </c>
-      <c r="C89" s="1">
-        <v>45090</v>
+      <c r="C89" s="2">
+        <v>44787</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
@@ -1352,8 +1353,8 @@
       <c r="B90">
         <v>2015</v>
       </c>
-      <c r="C90" s="1">
-        <v>45091</v>
+      <c r="C90" s="2">
+        <v>44788</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
@@ -1363,8 +1364,8 @@
       <c r="B91">
         <v>1893</v>
       </c>
-      <c r="C91" s="1">
-        <v>45092</v>
+      <c r="C91" s="2">
+        <v>44789</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
@@ -1374,8 +1375,8 @@
       <c r="B92">
         <v>2022</v>
       </c>
-      <c r="C92" s="1">
-        <v>45093</v>
+      <c r="C92" s="2">
+        <v>44790</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
@@ -1385,8 +1386,8 @@
       <c r="B93">
         <v>1538</v>
       </c>
-      <c r="C93" s="1">
-        <v>45094</v>
+      <c r="C93" s="2">
+        <v>44791</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
@@ -1396,8 +1397,8 @@
       <c r="B94">
         <v>1646</v>
       </c>
-      <c r="C94" s="1">
-        <v>45095</v>
+      <c r="C94" s="2">
+        <v>44792</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
@@ -1407,8 +1408,8 @@
       <c r="B95">
         <v>1606</v>
       </c>
-      <c r="C95" s="1">
-        <v>45096</v>
+      <c r="C95" s="2">
+        <v>44793</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
@@ -1418,8 +1419,8 @@
       <c r="B96">
         <v>2066</v>
       </c>
-      <c r="C96" s="1">
-        <v>45097</v>
+      <c r="C96" s="2">
+        <v>44794</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
@@ -1429,8 +1430,8 @@
       <c r="B97">
         <v>2039</v>
       </c>
-      <c r="C97" s="1">
-        <v>45098</v>
+      <c r="C97" s="2">
+        <v>44795</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
@@ -1440,8 +1441,8 @@
       <c r="B98">
         <v>2019</v>
       </c>
-      <c r="C98" s="1">
-        <v>45099</v>
+      <c r="C98" s="2">
+        <v>44796</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
@@ -1451,8 +1452,8 @@
       <c r="B99">
         <v>1946</v>
       </c>
-      <c r="C99" s="1">
-        <v>45100</v>
+      <c r="C99" s="2">
+        <v>44797</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
@@ -1462,8 +1463,8 @@
       <c r="B100">
         <v>2030</v>
       </c>
-      <c r="C100" s="1">
-        <v>45101</v>
+      <c r="C100" s="2">
+        <v>44798</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
@@ -1473,8 +1474,8 @@
       <c r="B101">
         <v>1604</v>
       </c>
-      <c r="C101" s="1">
-        <v>45102</v>
+      <c r="C101" s="2">
+        <v>44799</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
@@ -1484,8 +1485,8 @@
       <c r="B102">
         <v>1773</v>
       </c>
-      <c r="C102" s="1">
-        <v>45103</v>
+      <c r="C102" s="2">
+        <v>44800</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
@@ -1495,8 +1496,8 @@
       <c r="B103">
         <v>2055</v>
       </c>
-      <c r="C103" s="1">
-        <v>45104</v>
+      <c r="C103" s="2">
+        <v>44801</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
@@ -1506,8 +1507,8 @@
       <c r="B104">
         <v>1548</v>
       </c>
-      <c r="C104" s="1">
-        <v>45105</v>
+      <c r="C104" s="2">
+        <v>44802</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
@@ -1517,8 +1518,8 @@
       <c r="B105">
         <v>1893</v>
       </c>
-      <c r="C105" s="1">
-        <v>45106</v>
+      <c r="C105" s="2">
+        <v>44803</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
@@ -1528,8 +1529,8 @@
       <c r="B106">
         <v>1633</v>
       </c>
-      <c r="C106" s="1">
-        <v>45107</v>
+      <c r="C106" s="2">
+        <v>44804</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
@@ -1539,8 +1540,8 @@
       <c r="B107">
         <v>2023</v>
       </c>
-      <c r="C107" s="1">
-        <v>45108</v>
+      <c r="C107" s="2">
+        <v>44805</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
@@ -1550,8 +1551,8 @@
       <c r="B108">
         <v>2032</v>
       </c>
-      <c r="C108" s="1">
-        <v>45109</v>
+      <c r="C108" s="2">
+        <v>44806</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
@@ -1561,8 +1562,8 @@
       <c r="B109">
         <v>1753</v>
       </c>
-      <c r="C109" s="1">
-        <v>45110</v>
+      <c r="C109" s="2">
+        <v>44807</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
@@ -1572,8 +1573,8 @@
       <c r="B110">
         <v>1652</v>
       </c>
-      <c r="C110" s="1">
-        <v>45111</v>
+      <c r="C110" s="2">
+        <v>44808</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
@@ -1583,8 +1584,8 @@
       <c r="B111">
         <v>1905</v>
       </c>
-      <c r="C111" s="1">
-        <v>45112</v>
+      <c r="C111" s="2">
+        <v>44809</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
@@ -1594,8 +1595,8 @@
       <c r="B112">
         <v>1915</v>
       </c>
-      <c r="C112" s="1">
-        <v>45113</v>
+      <c r="C112" s="2">
+        <v>44810</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
@@ -1605,8 +1606,8 @@
       <c r="B113">
         <v>1601</v>
       </c>
-      <c r="C113" s="1">
-        <v>45114</v>
+      <c r="C113" s="2">
+        <v>44811</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
@@ -1616,8 +1617,8 @@
       <c r="B114">
         <v>1533</v>
       </c>
-      <c r="C114" s="1">
-        <v>45115</v>
+      <c r="C114" s="2">
+        <v>44812</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
@@ -1627,8 +1628,8 @@
       <c r="B115">
         <v>1630</v>
       </c>
-      <c r="C115" s="1">
-        <v>45116</v>
+      <c r="C115" s="2">
+        <v>44813</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
@@ -1638,8 +1639,8 @@
       <c r="B116">
         <v>1767</v>
       </c>
-      <c r="C116" s="1">
-        <v>45117</v>
+      <c r="C116" s="2">
+        <v>44814</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
@@ -1649,8 +1650,8 @@
       <c r="B117">
         <v>1546</v>
       </c>
-      <c r="C117" s="1">
-        <v>45118</v>
+      <c r="C117" s="2">
+        <v>44815</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
@@ -1660,8 +1661,8 @@
       <c r="B118">
         <v>1870</v>
       </c>
-      <c r="C118" s="1">
-        <v>45119</v>
+      <c r="C118" s="2">
+        <v>44816</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
@@ -1671,8 +1672,8 @@
       <c r="B119">
         <v>2029</v>
       </c>
-      <c r="C119" s="1">
-        <v>45120</v>
+      <c r="C119" s="2">
+        <v>44817</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
@@ -1682,8 +1683,8 @@
       <c r="B120">
         <v>2030</v>
       </c>
-      <c r="C120" s="1">
-        <v>45121</v>
+      <c r="C120" s="2">
+        <v>44818</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
@@ -1693,8 +1694,8 @@
       <c r="B121">
         <v>1670</v>
       </c>
-      <c r="C121" s="1">
-        <v>45122</v>
+      <c r="C121" s="2">
+        <v>44819</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
@@ -1704,8 +1705,8 @@
       <c r="B122">
         <v>1646</v>
       </c>
-      <c r="C122" s="1">
-        <v>45123</v>
+      <c r="C122" s="2">
+        <v>44820</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
@@ -1715,8 +1716,8 @@
       <c r="B123">
         <v>1733</v>
       </c>
-      <c r="C123" s="1">
-        <v>45124</v>
+      <c r="C123" s="2">
+        <v>44821</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
@@ -1726,8 +1727,8 @@
       <c r="B124">
         <v>1697</v>
       </c>
-      <c r="C124" s="1">
-        <v>45125</v>
+      <c r="C124" s="2">
+        <v>44822</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
@@ -1737,8 +1738,8 @@
       <c r="B125">
         <v>1830</v>
       </c>
-      <c r="C125" s="1">
-        <v>45126</v>
+      <c r="C125" s="2">
+        <v>44823</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
@@ -1748,8 +1749,8 @@
       <c r="B126">
         <v>1848</v>
       </c>
-      <c r="C126" s="1">
-        <v>45127</v>
+      <c r="C126" s="2">
+        <v>44824</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
@@ -1759,8 +1760,8 @@
       <c r="B127">
         <v>1644</v>
       </c>
-      <c r="C127" s="1">
-        <v>45128</v>
+      <c r="C127" s="2">
+        <v>44825</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
@@ -1770,8 +1771,8 @@
       <c r="B128">
         <v>1977</v>
       </c>
-      <c r="C128" s="1">
-        <v>45129</v>
+      <c r="C128" s="2">
+        <v>44826</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
@@ -1781,8 +1782,8 @@
       <c r="B129">
         <v>1803</v>
       </c>
-      <c r="C129" s="1">
-        <v>45130</v>
+      <c r="C129" s="2">
+        <v>44827</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
@@ -1792,8 +1793,8 @@
       <c r="B130">
         <v>1685</v>
       </c>
-      <c r="C130" s="1">
-        <v>45131</v>
+      <c r="C130" s="2">
+        <v>44828</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
@@ -1803,8 +1804,8 @@
       <c r="B131">
         <v>1549</v>
       </c>
-      <c r="C131" s="1">
-        <v>45132</v>
+      <c r="C131" s="2">
+        <v>44829</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
@@ -1814,8 +1815,8 @@
       <c r="B132">
         <v>1945</v>
       </c>
-      <c r="C132" s="1">
-        <v>45133</v>
+      <c r="C132" s="2">
+        <v>44830</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
@@ -1825,8 +1826,8 @@
       <c r="B133">
         <v>1869</v>
       </c>
-      <c r="C133" s="1">
-        <v>45134</v>
+      <c r="C133" s="2">
+        <v>44831</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
@@ -1836,8 +1837,8 @@
       <c r="B134">
         <v>1907</v>
       </c>
-      <c r="C134" s="1">
-        <v>45135</v>
+      <c r="C134" s="2">
+        <v>44832</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
@@ -1847,8 +1848,8 @@
       <c r="B135">
         <v>1929</v>
       </c>
-      <c r="C135" s="1">
-        <v>45136</v>
+      <c r="C135" s="2">
+        <v>44833</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
@@ -1858,8 +1859,8 @@
       <c r="B136">
         <v>1678</v>
       </c>
-      <c r="C136" s="1">
-        <v>45137</v>
+      <c r="C136" s="2">
+        <v>44834</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
@@ -1869,8 +1870,8 @@
       <c r="B137">
         <v>1504</v>
       </c>
-      <c r="C137" s="1">
-        <v>45138</v>
+      <c r="C137" s="2">
+        <v>44835</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
@@ -1880,8 +1881,8 @@
       <c r="B138">
         <v>1561</v>
       </c>
-      <c r="C138" s="1">
-        <v>45139</v>
+      <c r="C138" s="2">
+        <v>44836</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
@@ -1891,8 +1892,8 @@
       <c r="B139">
         <v>1621</v>
       </c>
-      <c r="C139" s="1">
-        <v>45140</v>
+      <c r="C139" s="2">
+        <v>44837</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
@@ -1902,8 +1903,8 @@
       <c r="B140">
         <v>1950</v>
       </c>
-      <c r="C140" s="1">
-        <v>45141</v>
+      <c r="C140" s="2">
+        <v>44838</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
@@ -1913,8 +1914,8 @@
       <c r="B141">
         <v>1539</v>
       </c>
-      <c r="C141" s="1">
-        <v>45142</v>
+      <c r="C141" s="2">
+        <v>44839</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
@@ -1924,8 +1925,8 @@
       <c r="B142">
         <v>1519</v>
       </c>
-      <c r="C142" s="1">
-        <v>45143</v>
+      <c r="C142" s="2">
+        <v>44840</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
@@ -1935,8 +1936,8 @@
       <c r="B143">
         <v>1581</v>
       </c>
-      <c r="C143" s="1">
-        <v>45144</v>
+      <c r="C143" s="2">
+        <v>44841</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
@@ -1946,8 +1947,8 @@
       <c r="B144">
         <v>1908</v>
       </c>
-      <c r="C144" s="1">
-        <v>45145</v>
+      <c r="C144" s="2">
+        <v>44842</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
@@ -1957,8 +1958,8 @@
       <c r="B145">
         <v>2077</v>
       </c>
-      <c r="C145" s="1">
-        <v>45146</v>
+      <c r="C145" s="2">
+        <v>44843</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
@@ -1968,8 +1969,8 @@
       <c r="B146">
         <v>2056</v>
       </c>
-      <c r="C146" s="1">
-        <v>45147</v>
+      <c r="C146" s="2">
+        <v>44844</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
@@ -1979,8 +1980,8 @@
       <c r="B147">
         <v>1898</v>
       </c>
-      <c r="C147" s="1">
-        <v>45148</v>
+      <c r="C147" s="2">
+        <v>44845</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
@@ -1990,8 +1991,8 @@
       <c r="B148">
         <v>1880</v>
       </c>
-      <c r="C148" s="1">
-        <v>45149</v>
+      <c r="C148" s="2">
+        <v>44846</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
@@ -2001,8 +2002,8 @@
       <c r="B149">
         <v>1670</v>
       </c>
-      <c r="C149" s="1">
-        <v>45150</v>
+      <c r="C149" s="2">
+        <v>44847</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
@@ -2012,8 +2013,8 @@
       <c r="B150">
         <v>2088</v>
       </c>
-      <c r="C150" s="1">
-        <v>45151</v>
+      <c r="C150" s="2">
+        <v>44848</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
@@ -2023,8 +2024,8 @@
       <c r="B151">
         <v>1946</v>
       </c>
-      <c r="C151" s="1">
-        <v>45152</v>
+      <c r="C151" s="2">
+        <v>44849</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
@@ -2034,8 +2035,8 @@
       <c r="B152">
         <v>1765</v>
       </c>
-      <c r="C152" s="1">
-        <v>45153</v>
+      <c r="C152" s="2">
+        <v>44850</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
@@ -2045,8 +2046,8 @@
       <c r="B153">
         <v>1991</v>
       </c>
-      <c r="C153" s="1">
-        <v>45154</v>
+      <c r="C153" s="2">
+        <v>44851</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
@@ -2056,8 +2057,8 @@
       <c r="B154">
         <v>1638</v>
       </c>
-      <c r="C154" s="1">
-        <v>45155</v>
+      <c r="C154" s="2">
+        <v>44852</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
@@ -2067,8 +2068,8 @@
       <c r="B155">
         <v>1595</v>
       </c>
-      <c r="C155" s="1">
-        <v>45156</v>
+      <c r="C155" s="2">
+        <v>44853</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
@@ -2078,8 +2079,8 @@
       <c r="B156">
         <v>2090</v>
       </c>
-      <c r="C156" s="1">
-        <v>45157</v>
+      <c r="C156" s="2">
+        <v>44854</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
@@ -2089,8 +2090,8 @@
       <c r="B157">
         <v>1545</v>
       </c>
-      <c r="C157" s="1">
-        <v>45158</v>
+      <c r="C157" s="2">
+        <v>44855</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
@@ -2100,8 +2101,8 @@
       <c r="B158">
         <v>1780</v>
       </c>
-      <c r="C158" s="1">
-        <v>45159</v>
+      <c r="C158" s="2">
+        <v>44856</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
@@ -2111,8 +2112,8 @@
       <c r="B159">
         <v>2014</v>
       </c>
-      <c r="C159" s="1">
-        <v>45160</v>
+      <c r="C159" s="2">
+        <v>44857</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
@@ -2122,8 +2123,8 @@
       <c r="B160">
         <v>1664</v>
       </c>
-      <c r="C160" s="1">
-        <v>45161</v>
+      <c r="C160" s="2">
+        <v>44858</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
@@ -2133,8 +2134,8 @@
       <c r="B161">
         <v>1869</v>
       </c>
-      <c r="C161" s="1">
-        <v>45162</v>
+      <c r="C161" s="2">
+        <v>44859</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
@@ -2144,8 +2145,8 @@
       <c r="B162">
         <v>1631</v>
       </c>
-      <c r="C162" s="1">
-        <v>45163</v>
+      <c r="C162" s="2">
+        <v>44860</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
@@ -2155,8 +2156,8 @@
       <c r="B163">
         <v>1644</v>
       </c>
-      <c r="C163" s="1">
-        <v>45164</v>
+      <c r="C163" s="2">
+        <v>44861</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
@@ -2166,8 +2167,8 @@
       <c r="B164">
         <v>1751</v>
       </c>
-      <c r="C164" s="1">
-        <v>45165</v>
+      <c r="C164" s="2">
+        <v>44862</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
@@ -2177,8 +2178,8 @@
       <c r="B165">
         <v>1905</v>
       </c>
-      <c r="C165" s="1">
-        <v>45166</v>
+      <c r="C165" s="2">
+        <v>44863</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
@@ -2188,8 +2189,8 @@
       <c r="B166">
         <v>1547</v>
       </c>
-      <c r="C166" s="1">
-        <v>45167</v>
+      <c r="C166" s="2">
+        <v>44864</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
@@ -2199,8 +2200,8 @@
       <c r="B167">
         <v>1880</v>
       </c>
-      <c r="C167" s="1">
-        <v>45168</v>
+      <c r="C167" s="2">
+        <v>44865</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
@@ -2210,8 +2211,8 @@
       <c r="B168">
         <v>1743</v>
       </c>
-      <c r="C168" s="1">
-        <v>45169</v>
+      <c r="C168" s="2">
+        <v>44866</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
@@ -2221,8 +2222,8 @@
       <c r="B169">
         <v>2095</v>
       </c>
-      <c r="C169" s="1">
-        <v>45170</v>
+      <c r="C169" s="2">
+        <v>44867</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
@@ -2232,8 +2233,8 @@
       <c r="B170">
         <v>1969</v>
       </c>
-      <c r="C170" s="1">
-        <v>45171</v>
+      <c r="C170" s="2">
+        <v>44868</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
@@ -2243,8 +2244,8 @@
       <c r="B171">
         <v>2038</v>
       </c>
-      <c r="C171" s="1">
-        <v>45172</v>
+      <c r="C171" s="2">
+        <v>44869</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
@@ -2254,8 +2255,8 @@
       <c r="B172">
         <v>1982</v>
       </c>
-      <c r="C172" s="1">
-        <v>45173</v>
+      <c r="C172" s="2">
+        <v>44870</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
@@ -2265,8 +2266,8 @@
       <c r="B173">
         <v>2036</v>
       </c>
-      <c r="C173" s="1">
-        <v>45174</v>
+      <c r="C173" s="2">
+        <v>44871</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
@@ -2276,8 +2277,8 @@
       <c r="B174">
         <v>2010</v>
       </c>
-      <c r="C174" s="1">
-        <v>45175</v>
+      <c r="C174" s="2">
+        <v>44872</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
@@ -2287,8 +2288,8 @@
       <c r="B175">
         <v>1991</v>
       </c>
-      <c r="C175" s="1">
-        <v>45176</v>
+      <c r="C175" s="2">
+        <v>44873</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
@@ -2298,8 +2299,8 @@
       <c r="B176">
         <v>1898</v>
       </c>
-      <c r="C176" s="1">
-        <v>45177</v>
+      <c r="C176" s="2">
+        <v>44874</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
@@ -2309,8 +2310,8 @@
       <c r="B177">
         <v>1859</v>
       </c>
-      <c r="C177" s="1">
-        <v>45178</v>
+      <c r="C177" s="2">
+        <v>44875</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
@@ -2320,8 +2321,8 @@
       <c r="B178">
         <v>1714</v>
       </c>
-      <c r="C178" s="1">
-        <v>45179</v>
+      <c r="C178" s="2">
+        <v>44876</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
@@ -2331,8 +2332,8 @@
       <c r="B179">
         <v>1760</v>
       </c>
-      <c r="C179" s="1">
-        <v>45180</v>
+      <c r="C179" s="2">
+        <v>44877</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
@@ -2342,8 +2343,8 @@
       <c r="B180">
         <v>1658</v>
       </c>
-      <c r="C180" s="1">
-        <v>45181</v>
+      <c r="C180" s="2">
+        <v>44878</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
@@ -2353,8 +2354,8 @@
       <c r="B181">
         <v>1665</v>
       </c>
-      <c r="C181" s="1">
-        <v>45182</v>
+      <c r="C181" s="2">
+        <v>44879</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
@@ -2364,8 +2365,8 @@
       <c r="B182">
         <v>1872</v>
       </c>
-      <c r="C182" s="1">
-        <v>45183</v>
+      <c r="C182" s="2">
+        <v>44880</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
@@ -2375,8 +2376,8 @@
       <c r="B183">
         <v>1548</v>
       </c>
-      <c r="C183" s="1">
-        <v>45184</v>
+      <c r="C183" s="2">
+        <v>44881</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
@@ -2386,8 +2387,8 @@
       <c r="B184">
         <v>1897</v>
       </c>
-      <c r="C184" s="1">
-        <v>45185</v>
+      <c r="C184" s="2">
+        <v>44882</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
@@ -2397,8 +2398,8 @@
       <c r="B185">
         <v>2018</v>
       </c>
-      <c r="C185" s="1">
-        <v>45186</v>
+      <c r="C185" s="2">
+        <v>44883</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
@@ -2408,8 +2409,8 @@
       <c r="B186">
         <v>1829</v>
       </c>
-      <c r="C186" s="1">
-        <v>45187</v>
+      <c r="C186" s="2">
+        <v>44884</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
@@ -2419,8 +2420,8 @@
       <c r="B187">
         <v>1801</v>
       </c>
-      <c r="C187" s="1">
-        <v>45188</v>
+      <c r="C187" s="2">
+        <v>44885</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
@@ -2430,8 +2431,8 @@
       <c r="B188">
         <v>2011</v>
       </c>
-      <c r="C188" s="1">
-        <v>45189</v>
+      <c r="C188" s="2">
+        <v>44886</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
@@ -2441,8 +2442,8 @@
       <c r="B189">
         <v>2092</v>
       </c>
-      <c r="C189" s="1">
-        <v>45190</v>
+      <c r="C189" s="2">
+        <v>44887</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
@@ -2452,8 +2453,8 @@
       <c r="B190">
         <v>2001</v>
       </c>
-      <c r="C190" s="1">
-        <v>45191</v>
+      <c r="C190" s="2">
+        <v>44888</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
@@ -2463,8 +2464,8 @@
       <c r="B191">
         <v>1597</v>
       </c>
-      <c r="C191" s="1">
-        <v>45192</v>
+      <c r="C191" s="2">
+        <v>44889</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
@@ -2474,8 +2475,8 @@
       <c r="B192">
         <v>1785</v>
       </c>
-      <c r="C192" s="1">
-        <v>45193</v>
+      <c r="C192" s="2">
+        <v>44890</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
@@ -2485,8 +2486,8 @@
       <c r="B193">
         <v>2096</v>
       </c>
-      <c r="C193" s="1">
-        <v>45194</v>
+      <c r="C193" s="2">
+        <v>44891</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
@@ -2496,8 +2497,8 @@
       <c r="B194">
         <v>1999</v>
       </c>
-      <c r="C194" s="1">
-        <v>45195</v>
+      <c r="C194" s="2">
+        <v>44892</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
@@ -2507,8 +2508,8 @@
       <c r="B195">
         <v>1727</v>
       </c>
-      <c r="C195" s="1">
-        <v>45196</v>
+      <c r="C195" s="2">
+        <v>44893</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
@@ -2518,8 +2519,8 @@
       <c r="B196">
         <v>1556</v>
       </c>
-      <c r="C196" s="1">
-        <v>45197</v>
+      <c r="C196" s="2">
+        <v>44894</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
@@ -2529,8 +2530,8 @@
       <c r="B197">
         <v>1819</v>
       </c>
-      <c r="C197" s="1">
-        <v>45198</v>
+      <c r="C197" s="2">
+        <v>44895</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
@@ -2540,8 +2541,8 @@
       <c r="B198">
         <v>1770</v>
       </c>
-      <c r="C198" s="1">
-        <v>45199</v>
+      <c r="C198" s="2">
+        <v>44896</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
@@ -2551,8 +2552,8 @@
       <c r="B199">
         <v>1652</v>
       </c>
-      <c r="C199" s="1">
-        <v>45200</v>
+      <c r="C199" s="2">
+        <v>44897</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
@@ -2562,8 +2563,8 @@
       <c r="B200">
         <v>1838</v>
       </c>
-      <c r="C200" s="1">
-        <v>45201</v>
+      <c r="C200" s="2">
+        <v>44898</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
@@ -2573,8 +2574,8 @@
       <c r="B201">
         <v>2066</v>
       </c>
-      <c r="C201" s="1">
-        <v>45202</v>
+      <c r="C201" s="2">
+        <v>44899</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
@@ -2584,8 +2585,8 @@
       <c r="B202">
         <v>1717</v>
       </c>
-      <c r="C202" s="1">
-        <v>45203</v>
+      <c r="C202" s="2">
+        <v>44900</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
@@ -2595,8 +2596,8 @@
       <c r="B203">
         <v>1747</v>
       </c>
-      <c r="C203" s="1">
-        <v>45204</v>
+      <c r="C203" s="2">
+        <v>44901</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
@@ -2606,8 +2607,8 @@
       <c r="B204">
         <v>1732</v>
       </c>
-      <c r="C204" s="1">
-        <v>45205</v>
+      <c r="C204" s="2">
+        <v>44902</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
@@ -2617,8 +2618,8 @@
       <c r="B205">
         <v>1833</v>
       </c>
-      <c r="C205" s="1">
-        <v>45206</v>
+      <c r="C205" s="2">
+        <v>44903</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
@@ -2628,8 +2629,8 @@
       <c r="B206">
         <v>1975</v>
       </c>
-      <c r="C206" s="1">
-        <v>45207</v>
+      <c r="C206" s="2">
+        <v>44904</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
@@ -2639,8 +2640,8 @@
       <c r="B207">
         <v>1973</v>
       </c>
-      <c r="C207" s="1">
-        <v>45208</v>
+      <c r="C207" s="2">
+        <v>44905</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
@@ -2650,8 +2651,8 @@
       <c r="B208">
         <v>2009</v>
       </c>
-      <c r="C208" s="1">
-        <v>45209</v>
+      <c r="C208" s="2">
+        <v>44906</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
@@ -2661,8 +2662,8 @@
       <c r="B209">
         <v>1545</v>
       </c>
-      <c r="C209" s="1">
-        <v>45210</v>
+      <c r="C209" s="2">
+        <v>44907</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
@@ -2672,8 +2673,8 @@
       <c r="B210">
         <v>1592</v>
       </c>
-      <c r="C210" s="1">
-        <v>45211</v>
+      <c r="C210" s="2">
+        <v>44908</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
@@ -2683,8 +2684,8 @@
       <c r="B211">
         <v>1739</v>
       </c>
-      <c r="C211" s="1">
-        <v>45212</v>
+      <c r="C211" s="2">
+        <v>44909</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
@@ -2694,8 +2695,8 @@
       <c r="B212">
         <v>2002</v>
       </c>
-      <c r="C212" s="1">
-        <v>45213</v>
+      <c r="C212" s="2">
+        <v>44910</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
@@ -2705,8 +2706,8 @@
       <c r="B213">
         <v>2014</v>
       </c>
-      <c r="C213" s="1">
-        <v>45214</v>
+      <c r="C213" s="2">
+        <v>44911</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
@@ -2716,8 +2717,8 @@
       <c r="B214">
         <v>1623</v>
       </c>
-      <c r="C214" s="1">
-        <v>45215</v>
+      <c r="C214" s="2">
+        <v>44912</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
@@ -2727,8 +2728,8 @@
       <c r="B215">
         <v>2048</v>
       </c>
-      <c r="C215" s="1">
-        <v>45216</v>
+      <c r="C215" s="2">
+        <v>44913</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
@@ -2738,8 +2739,8 @@
       <c r="B216">
         <v>1815</v>
       </c>
-      <c r="C216" s="1">
-        <v>45217</v>
+      <c r="C216" s="2">
+        <v>44914</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
@@ -2749,8 +2750,8 @@
       <c r="B217">
         <v>2019</v>
       </c>
-      <c r="C217" s="1">
-        <v>45218</v>
+      <c r="C217" s="2">
+        <v>44915</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
@@ -2760,8 +2761,8 @@
       <c r="B218">
         <v>1672</v>
       </c>
-      <c r="C218" s="1">
-        <v>45219</v>
+      <c r="C218" s="2">
+        <v>44916</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
@@ -2771,8 +2772,8 @@
       <c r="B219">
         <v>1890</v>
       </c>
-      <c r="C219" s="1">
-        <v>45220</v>
+      <c r="C219" s="2">
+        <v>44917</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
@@ -2782,8 +2783,8 @@
       <c r="B220">
         <v>1972</v>
       </c>
-      <c r="C220" s="1">
-        <v>45221</v>
+      <c r="C220" s="2">
+        <v>44918</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
@@ -2793,8 +2794,8 @@
       <c r="B221">
         <v>1985</v>
       </c>
-      <c r="C221" s="1">
-        <v>45222</v>
+      <c r="C221" s="2">
+        <v>44919</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
@@ -2804,8 +2805,8 @@
       <c r="B222">
         <v>1874</v>
       </c>
-      <c r="C222" s="1">
-        <v>45223</v>
+      <c r="C222" s="2">
+        <v>44920</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
@@ -2815,8 +2816,8 @@
       <c r="B223">
         <v>1976</v>
       </c>
-      <c r="C223" s="1">
-        <v>45224</v>
+      <c r="C223" s="2">
+        <v>44921</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
@@ -2826,8 +2827,8 @@
       <c r="B224">
         <v>1844</v>
       </c>
-      <c r="C224" s="1">
-        <v>45225</v>
+      <c r="C224" s="2">
+        <v>44922</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
@@ -2837,8 +2838,8 @@
       <c r="B225">
         <v>1716</v>
       </c>
-      <c r="C225" s="1">
-        <v>45226</v>
+      <c r="C225" s="2">
+        <v>44923</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
@@ -2848,8 +2849,8 @@
       <c r="B226">
         <v>1509</v>
       </c>
-      <c r="C226" s="1">
-        <v>45227</v>
+      <c r="C226" s="2">
+        <v>44924</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
@@ -2859,8 +2860,8 @@
       <c r="B227">
         <v>1957</v>
       </c>
-      <c r="C227" s="1">
-        <v>45228</v>
+      <c r="C227" s="2">
+        <v>44925</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
@@ -2870,8 +2871,8 @@
       <c r="B228">
         <v>1662</v>
       </c>
-      <c r="C228" s="1">
-        <v>45229</v>
+      <c r="C228" s="2">
+        <v>44926</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
@@ -2881,8 +2882,8 @@
       <c r="B229">
         <v>1977</v>
       </c>
-      <c r="C229" s="1">
-        <v>45230</v>
+      <c r="C229" s="2">
+        <v>44927</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
@@ -2892,8 +2893,8 @@
       <c r="B230">
         <v>1613</v>
       </c>
-      <c r="C230" s="1">
-        <v>45231</v>
+      <c r="C230" s="2">
+        <v>44928</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
@@ -2903,8 +2904,8 @@
       <c r="B231">
         <v>1885</v>
       </c>
-      <c r="C231" s="1">
-        <v>45232</v>
+      <c r="C231" s="2">
+        <v>44929</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
@@ -2914,8 +2915,8 @@
       <c r="B232">
         <v>1536</v>
       </c>
-      <c r="C232" s="1">
-        <v>45233</v>
+      <c r="C232" s="2">
+        <v>44930</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
@@ -2925,8 +2926,8 @@
       <c r="B233">
         <v>1840</v>
       </c>
-      <c r="C233" s="1">
-        <v>45234</v>
+      <c r="C233" s="2">
+        <v>44931</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
@@ -2936,8 +2937,8 @@
       <c r="B234">
         <v>1688</v>
       </c>
-      <c r="C234" s="1">
-        <v>45235</v>
+      <c r="C234" s="2">
+        <v>44932</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
@@ -2947,8 +2948,8 @@
       <c r="B235">
         <v>1520</v>
       </c>
-      <c r="C235" s="1">
-        <v>45236</v>
+      <c r="C235" s="2">
+        <v>44933</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
@@ -2958,8 +2959,8 @@
       <c r="B236">
         <v>1955</v>
       </c>
-      <c r="C236" s="1">
-        <v>45237</v>
+      <c r="C236" s="2">
+        <v>44934</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
@@ -2969,8 +2970,8 @@
       <c r="B237">
         <v>1542</v>
       </c>
-      <c r="C237" s="1">
-        <v>45238</v>
+      <c r="C237" s="2">
+        <v>44935</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
@@ -2980,8 +2981,8 @@
       <c r="B238">
         <v>2064</v>
       </c>
-      <c r="C238" s="1">
-        <v>45239</v>
+      <c r="C238" s="2">
+        <v>44936</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
@@ -2991,8 +2992,8 @@
       <c r="B239">
         <v>1571</v>
       </c>
-      <c r="C239" s="1">
-        <v>45240</v>
+      <c r="C239" s="2">
+        <v>44937</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
@@ -3002,8 +3003,8 @@
       <c r="B240">
         <v>1968</v>
       </c>
-      <c r="C240" s="1">
-        <v>45241</v>
+      <c r="C240" s="2">
+        <v>44938</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
@@ -3013,8 +3014,8 @@
       <c r="B241">
         <v>1506</v>
       </c>
-      <c r="C241" s="1">
-        <v>45242</v>
+      <c r="C241" s="2">
+        <v>44939</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
@@ -3024,8 +3025,8 @@
       <c r="B242">
         <v>1826</v>
       </c>
-      <c r="C242" s="1">
-        <v>45243</v>
+      <c r="C242" s="2">
+        <v>44940</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.3">
@@ -3035,8 +3036,8 @@
       <c r="B243">
         <v>1785</v>
       </c>
-      <c r="C243" s="1">
-        <v>45244</v>
+      <c r="C243" s="2">
+        <v>44941</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.3">
@@ -3046,8 +3047,8 @@
       <c r="B244">
         <v>1555</v>
       </c>
-      <c r="C244" s="1">
-        <v>45245</v>
+      <c r="C244" s="2">
+        <v>44942</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
@@ -3057,8 +3058,8 @@
       <c r="B245">
         <v>1895</v>
       </c>
-      <c r="C245" s="1">
-        <v>45246</v>
+      <c r="C245" s="2">
+        <v>44943</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.3">
@@ -3068,8 +3069,8 @@
       <c r="B246">
         <v>1786</v>
       </c>
-      <c r="C246" s="1">
-        <v>45247</v>
+      <c r="C246" s="2">
+        <v>44944</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
@@ -3079,8 +3080,8 @@
       <c r="B247">
         <v>1598</v>
       </c>
-      <c r="C247" s="1">
-        <v>45248</v>
+      <c r="C247" s="2">
+        <v>44945</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
@@ -3090,8 +3091,8 @@
       <c r="B248">
         <v>1575</v>
       </c>
-      <c r="C248" s="1">
-        <v>45249</v>
+      <c r="C248" s="2">
+        <v>44946</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
@@ -3101,8 +3102,8 @@
       <c r="B249">
         <v>1876</v>
       </c>
-      <c r="C249" s="1">
-        <v>45250</v>
+      <c r="C249" s="2">
+        <v>44947</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
@@ -3112,8 +3113,8 @@
       <c r="B250">
         <v>1824</v>
       </c>
-      <c r="C250" s="1">
-        <v>45251</v>
+      <c r="C250" s="2">
+        <v>44948</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
@@ -3123,8 +3124,8 @@
       <c r="B251">
         <v>1730</v>
       </c>
-      <c r="C251" s="1">
-        <v>45252</v>
+      <c r="C251" s="2">
+        <v>44949</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
@@ -3134,8 +3135,8 @@
       <c r="B252">
         <v>1702</v>
       </c>
-      <c r="C252" s="1">
-        <v>45253</v>
+      <c r="C252" s="2">
+        <v>44950</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
@@ -3145,8 +3146,8 @@
       <c r="B253">
         <v>1899</v>
       </c>
-      <c r="C253" s="1">
-        <v>45254</v>
+      <c r="C253" s="2">
+        <v>44951</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
@@ -3156,8 +3157,8 @@
       <c r="B254">
         <v>1975</v>
       </c>
-      <c r="C254" s="1">
-        <v>45255</v>
+      <c r="C254" s="2">
+        <v>44952</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
@@ -3167,8 +3168,8 @@
       <c r="B255">
         <v>1515</v>
       </c>
-      <c r="C255" s="1">
-        <v>45256</v>
+      <c r="C255" s="2">
+        <v>44953</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
@@ -3178,8 +3179,8 @@
       <c r="B256">
         <v>1899</v>
       </c>
-      <c r="C256" s="1">
-        <v>45257</v>
+      <c r="C256" s="2">
+        <v>44954</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.3">
@@ -3189,8 +3190,8 @@
       <c r="B257">
         <v>1818</v>
       </c>
-      <c r="C257" s="1">
-        <v>45258</v>
+      <c r="C257" s="2">
+        <v>44955</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
@@ -3200,8 +3201,8 @@
       <c r="B258">
         <v>1998</v>
       </c>
-      <c r="C258" s="1">
-        <v>45259</v>
+      <c r="C258" s="2">
+        <v>44956</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
@@ -3211,8 +3212,8 @@
       <c r="B259">
         <v>1712</v>
       </c>
-      <c r="C259" s="1">
-        <v>45260</v>
+      <c r="C259" s="2">
+        <v>44957</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.3">
@@ -3222,8 +3223,8 @@
       <c r="B260">
         <v>1526</v>
       </c>
-      <c r="C260" s="1">
-        <v>45261</v>
+      <c r="C260" s="2">
+        <v>44958</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.3">
@@ -3233,8 +3234,8 @@
       <c r="B261">
         <v>1950</v>
       </c>
-      <c r="C261" s="1">
-        <v>45262</v>
+      <c r="C261" s="2">
+        <v>44959</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.3">
@@ -3244,8 +3245,8 @@
       <c r="B262">
         <v>1553</v>
       </c>
-      <c r="C262" s="1">
-        <v>45263</v>
+      <c r="C262" s="2">
+        <v>44960</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
@@ -3255,8 +3256,8 @@
       <c r="B263">
         <v>2041</v>
       </c>
-      <c r="C263" s="1">
-        <v>45264</v>
+      <c r="C263" s="2">
+        <v>44961</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.3">
@@ -3266,8 +3267,8 @@
       <c r="B264">
         <v>1939</v>
       </c>
-      <c r="C264" s="1">
-        <v>45265</v>
+      <c r="C264" s="2">
+        <v>44962</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
@@ -3277,8 +3278,8 @@
       <c r="B265">
         <v>1652</v>
       </c>
-      <c r="C265" s="1">
-        <v>45266</v>
+      <c r="C265" s="2">
+        <v>44963</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.3">
@@ -3288,8 +3289,8 @@
       <c r="B266">
         <v>2100</v>
       </c>
-      <c r="C266" s="1">
-        <v>45267</v>
+      <c r="C266" s="2">
+        <v>44964</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.3">
@@ -3299,8 +3300,8 @@
       <c r="B267">
         <v>1643</v>
       </c>
-      <c r="C267" s="1">
-        <v>45268</v>
+      <c r="C267" s="2">
+        <v>44965</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.3">
@@ -3310,8 +3311,8 @@
       <c r="B268">
         <v>1926</v>
       </c>
-      <c r="C268" s="1">
-        <v>45269</v>
+      <c r="C268" s="2">
+        <v>44966</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.3">
@@ -3321,8 +3322,8 @@
       <c r="B269">
         <v>1785</v>
       </c>
-      <c r="C269" s="1">
-        <v>45270</v>
+      <c r="C269" s="2">
+        <v>44967</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
@@ -3332,8 +3333,8 @@
       <c r="B270">
         <v>1595</v>
       </c>
-      <c r="C270" s="1">
-        <v>45271</v>
+      <c r="C270" s="2">
+        <v>44968</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.3">
@@ -3343,8 +3344,8 @@
       <c r="B271">
         <v>1822</v>
       </c>
-      <c r="C271" s="1">
-        <v>45272</v>
+      <c r="C271" s="2">
+        <v>44969</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.3">
@@ -3354,8 +3355,8 @@
       <c r="B272">
         <v>1501</v>
       </c>
-      <c r="C272" s="1">
-        <v>45273</v>
+      <c r="C272" s="2">
+        <v>44970</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.3">
@@ -3365,8 +3366,8 @@
       <c r="B273">
         <v>1641</v>
       </c>
-      <c r="C273" s="1">
-        <v>45274</v>
+      <c r="C273" s="2">
+        <v>44971</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.3">
@@ -3376,8 +3377,8 @@
       <c r="B274">
         <v>1932</v>
       </c>
-      <c r="C274" s="1">
-        <v>45275</v>
+      <c r="C274" s="2">
+        <v>44972</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.3">
@@ -3387,8 +3388,8 @@
       <c r="B275">
         <v>1775</v>
       </c>
-      <c r="C275" s="1">
-        <v>45276</v>
+      <c r="C275" s="2">
+        <v>44973</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.3">
@@ -3398,8 +3399,8 @@
       <c r="B276">
         <v>1774</v>
       </c>
-      <c r="C276" s="1">
-        <v>45277</v>
+      <c r="C276" s="2">
+        <v>44974</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.3">
@@ -3409,8 +3410,8 @@
       <c r="B277">
         <v>1510</v>
       </c>
-      <c r="C277" s="1">
-        <v>45278</v>
+      <c r="C277" s="2">
+        <v>44975</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.3">
@@ -3420,8 +3421,8 @@
       <c r="B278">
         <v>1684</v>
       </c>
-      <c r="C278" s="1">
-        <v>45279</v>
+      <c r="C278" s="2">
+        <v>44976</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.3">
@@ -3431,8 +3432,8 @@
       <c r="B279">
         <v>1633</v>
       </c>
-      <c r="C279" s="1">
-        <v>45280</v>
+      <c r="C279" s="2">
+        <v>44977</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
@@ -3442,8 +3443,8 @@
       <c r="B280">
         <v>1544</v>
       </c>
-      <c r="C280" s="1">
-        <v>45281</v>
+      <c r="C280" s="2">
+        <v>44978</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.3">
@@ -3453,8 +3454,8 @@
       <c r="B281">
         <v>1986</v>
       </c>
-      <c r="C281" s="1">
-        <v>45282</v>
+      <c r="C281" s="2">
+        <v>44979</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.3">
@@ -3464,8 +3465,8 @@
       <c r="B282">
         <v>1791</v>
       </c>
-      <c r="C282" s="1">
-        <v>45283</v>
+      <c r="C282" s="2">
+        <v>44980</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.3">
@@ -3475,8 +3476,8 @@
       <c r="B283">
         <v>1807</v>
       </c>
-      <c r="C283" s="1">
-        <v>45284</v>
+      <c r="C283" s="2">
+        <v>44981</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.3">
@@ -3486,8 +3487,8 @@
       <c r="B284">
         <v>1988</v>
       </c>
-      <c r="C284" s="1">
-        <v>45285</v>
+      <c r="C284" s="2">
+        <v>44982</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
@@ -3497,8 +3498,8 @@
       <c r="B285">
         <v>1540</v>
       </c>
-      <c r="C285" s="1">
-        <v>45286</v>
+      <c r="C285" s="2">
+        <v>44983</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.3">
@@ -3508,8 +3509,8 @@
       <c r="B286">
         <v>1916</v>
       </c>
-      <c r="C286" s="1">
-        <v>45287</v>
+      <c r="C286" s="2">
+        <v>44984</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.3">
@@ -3519,8 +3520,8 @@
       <c r="B287">
         <v>1642</v>
       </c>
-      <c r="C287" s="1">
-        <v>45288</v>
+      <c r="C287" s="2">
+        <v>44985</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.3">
@@ -3530,8 +3531,8 @@
       <c r="B288">
         <v>1664</v>
       </c>
-      <c r="C288" s="1">
-        <v>45289</v>
+      <c r="C288" s="2">
+        <v>44986</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.3">
@@ -3541,8 +3542,8 @@
       <c r="B289">
         <v>1758</v>
       </c>
-      <c r="C289" s="1">
-        <v>45290</v>
+      <c r="C289" s="2">
+        <v>44987</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.3">
@@ -3552,8 +3553,8 @@
       <c r="B290">
         <v>1551</v>
       </c>
-      <c r="C290" s="1">
-        <v>45291</v>
+      <c r="C290" s="2">
+        <v>44988</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.3">
@@ -3563,8 +3564,8 @@
       <c r="B291">
         <v>2096</v>
       </c>
-      <c r="C291" s="1">
-        <v>45292</v>
+      <c r="C291" s="2">
+        <v>44989</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.3">
@@ -3574,8 +3575,8 @@
       <c r="B292">
         <v>2067</v>
       </c>
-      <c r="C292" s="1">
-        <v>45293</v>
+      <c r="C292" s="2">
+        <v>44990</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.3">
@@ -3585,8 +3586,8 @@
       <c r="B293">
         <v>1558</v>
       </c>
-      <c r="C293" s="1">
-        <v>45294</v>
+      <c r="C293" s="2">
+        <v>44991</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.3">
@@ -3596,8 +3597,8 @@
       <c r="B294">
         <v>1641</v>
       </c>
-      <c r="C294" s="1">
-        <v>45295</v>
+      <c r="C294" s="2">
+        <v>44992</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.3">
@@ -3607,8 +3608,8 @@
       <c r="B295">
         <v>1630</v>
       </c>
-      <c r="C295" s="1">
-        <v>45296</v>
+      <c r="C295" s="2">
+        <v>44993</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.3">
@@ -3618,8 +3619,8 @@
       <c r="B296">
         <v>2023</v>
       </c>
-      <c r="C296" s="1">
-        <v>45297</v>
+      <c r="C296" s="2">
+        <v>44994</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.3">
@@ -3629,8 +3630,8 @@
       <c r="B297">
         <v>1834</v>
       </c>
-      <c r="C297" s="1">
-        <v>45298</v>
+      <c r="C297" s="2">
+        <v>44995</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.3">
@@ -3640,8 +3641,8 @@
       <c r="B298">
         <v>2064</v>
       </c>
-      <c r="C298" s="1">
-        <v>45299</v>
+      <c r="C298" s="2">
+        <v>44996</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.3">
@@ -3651,8 +3652,8 @@
       <c r="B299">
         <v>2069</v>
       </c>
-      <c r="C299" s="1">
-        <v>45300</v>
+      <c r="C299" s="2">
+        <v>44997</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.3">
@@ -3662,8 +3663,8 @@
       <c r="B300">
         <v>1986</v>
       </c>
-      <c r="C300" s="1">
-        <v>45301</v>
+      <c r="C300" s="2">
+        <v>44998</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.3">
@@ -3673,8 +3674,8 @@
       <c r="B301">
         <v>1991</v>
       </c>
-      <c r="C301" s="1">
-        <v>45302</v>
+      <c r="C301" s="2">
+        <v>44999</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.3">
@@ -3684,8 +3685,8 @@
       <c r="B302">
         <v>1893</v>
       </c>
-      <c r="C302" s="1">
-        <v>45303</v>
+      <c r="C302" s="2">
+        <v>45000</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.3">
@@ -3695,8 +3696,8 @@
       <c r="B303">
         <v>1589</v>
       </c>
-      <c r="C303" s="1">
-        <v>45304</v>
+      <c r="C303" s="2">
+        <v>45001</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.3">
@@ -3706,8 +3707,8 @@
       <c r="B304">
         <v>1518</v>
       </c>
-      <c r="C304" s="1">
-        <v>45305</v>
+      <c r="C304" s="2">
+        <v>45002</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.3">
@@ -3717,8 +3718,8 @@
       <c r="B305">
         <v>1849</v>
       </c>
-      <c r="C305" s="1">
-        <v>45306</v>
+      <c r="C305" s="2">
+        <v>45003</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.3">
@@ -3728,8 +3729,8 @@
       <c r="B306">
         <v>2049</v>
       </c>
-      <c r="C306" s="1">
-        <v>45307</v>
+      <c r="C306" s="2">
+        <v>45004</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.3">
@@ -3739,8 +3740,8 @@
       <c r="B307">
         <v>1672</v>
       </c>
-      <c r="C307" s="1">
-        <v>45308</v>
+      <c r="C307" s="2">
+        <v>45005</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.3">
@@ -3750,8 +3751,8 @@
       <c r="B308">
         <v>1655</v>
       </c>
-      <c r="C308" s="1">
-        <v>45309</v>
+      <c r="C308" s="2">
+        <v>45006</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.3">
@@ -3761,8 +3762,8 @@
       <c r="B309">
         <v>1654</v>
       </c>
-      <c r="C309" s="1">
-        <v>45310</v>
+      <c r="C309" s="2">
+        <v>45007</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.3">
@@ -3772,8 +3773,8 @@
       <c r="B310">
         <v>1747</v>
       </c>
-      <c r="C310" s="1">
-        <v>45311</v>
+      <c r="C310" s="2">
+        <v>45008</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.3">
@@ -3783,8 +3784,8 @@
       <c r="B311">
         <v>1698</v>
       </c>
-      <c r="C311" s="1">
-        <v>45312</v>
+      <c r="C311" s="2">
+        <v>45009</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.3">
@@ -3794,8 +3795,8 @@
       <c r="B312">
         <v>1996</v>
       </c>
-      <c r="C312" s="1">
-        <v>45313</v>
+      <c r="C312" s="2">
+        <v>45010</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.3">
@@ -3805,8 +3806,8 @@
       <c r="B313">
         <v>1609</v>
       </c>
-      <c r="C313" s="1">
-        <v>45314</v>
+      <c r="C313" s="2">
+        <v>45011</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.3">
@@ -3816,8 +3817,8 @@
       <c r="B314">
         <v>1795</v>
       </c>
-      <c r="C314" s="1">
-        <v>45315</v>
+      <c r="C314" s="2">
+        <v>45012</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.3">
@@ -3827,8 +3828,8 @@
       <c r="B315">
         <v>2003</v>
       </c>
-      <c r="C315" s="1">
-        <v>45316</v>
+      <c r="C315" s="2">
+        <v>45013</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.3">
@@ -3838,8 +3839,8 @@
       <c r="B316">
         <v>1726</v>
       </c>
-      <c r="C316" s="1">
-        <v>45317</v>
+      <c r="C316" s="2">
+        <v>45014</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.3">
@@ -3849,8 +3850,8 @@
       <c r="B317">
         <v>1603</v>
       </c>
-      <c r="C317" s="1">
-        <v>45318</v>
+      <c r="C317" s="2">
+        <v>45015</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.3">
@@ -3860,8 +3861,8 @@
       <c r="B318">
         <v>1700</v>
       </c>
-      <c r="C318" s="1">
-        <v>45319</v>
+      <c r="C318" s="2">
+        <v>45016</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.3">
@@ -3871,8 +3872,8 @@
       <c r="B319">
         <v>1973</v>
       </c>
-      <c r="C319" s="1">
-        <v>45320</v>
+      <c r="C319" s="2">
+        <v>45017</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.3">
@@ -3882,8 +3883,8 @@
       <c r="B320">
         <v>1915</v>
       </c>
-      <c r="C320" s="1">
-        <v>45321</v>
+      <c r="C320" s="2">
+        <v>45018</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.3">
@@ -3893,8 +3894,8 @@
       <c r="B321">
         <v>1539</v>
       </c>
-      <c r="C321" s="1">
-        <v>45322</v>
+      <c r="C321" s="2">
+        <v>45019</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.3">
@@ -3904,8 +3905,8 @@
       <c r="B322">
         <v>2001</v>
       </c>
-      <c r="C322" s="1">
-        <v>45323</v>
+      <c r="C322" s="2">
+        <v>45020</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.3">
@@ -3915,8 +3916,8 @@
       <c r="B323">
         <v>2065</v>
       </c>
-      <c r="C323" s="1">
-        <v>45324</v>
+      <c r="C323" s="2">
+        <v>45021</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.3">
@@ -3926,8 +3927,8 @@
       <c r="B324">
         <v>1999</v>
       </c>
-      <c r="C324" s="1">
-        <v>45325</v>
+      <c r="C324" s="2">
+        <v>45022</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.3">
@@ -3937,8 +3938,8 @@
       <c r="B325">
         <v>1632</v>
       </c>
-      <c r="C325" s="1">
-        <v>45326</v>
+      <c r="C325" s="2">
+        <v>45023</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.3">
@@ -3948,8 +3949,8 @@
       <c r="B326">
         <v>1528</v>
       </c>
-      <c r="C326" s="1">
-        <v>45327</v>
+      <c r="C326" s="2">
+        <v>45024</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.3">
@@ -3959,8 +3960,8 @@
       <c r="B327">
         <v>1805</v>
       </c>
-      <c r="C327" s="1">
-        <v>45328</v>
+      <c r="C327" s="2">
+        <v>45025</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.3">
@@ -3970,8 +3971,8 @@
       <c r="B328">
         <v>1594</v>
       </c>
-      <c r="C328" s="1">
-        <v>45329</v>
+      <c r="C328" s="2">
+        <v>45026</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.3">
@@ -3981,8 +3982,8 @@
       <c r="B329">
         <v>1663</v>
       </c>
-      <c r="C329" s="1">
-        <v>45330</v>
+      <c r="C329" s="2">
+        <v>45027</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.3">
@@ -3992,8 +3993,8 @@
       <c r="B330">
         <v>1607</v>
       </c>
-      <c r="C330" s="1">
-        <v>45331</v>
+      <c r="C330" s="2">
+        <v>45028</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.3">
@@ -4003,8 +4004,8 @@
       <c r="B331">
         <v>1529</v>
       </c>
-      <c r="C331" s="1">
-        <v>45332</v>
+      <c r="C331" s="2">
+        <v>45029</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.3">
@@ -4014,8 +4015,8 @@
       <c r="B332">
         <v>1988</v>
       </c>
-      <c r="C332" s="1">
-        <v>45333</v>
+      <c r="C332" s="2">
+        <v>45030</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.3">
@@ -4025,8 +4026,8 @@
       <c r="B333">
         <v>1505</v>
       </c>
-      <c r="C333" s="1">
-        <v>45334</v>
+      <c r="C333" s="2">
+        <v>45031</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.3">
@@ -4036,8 +4037,8 @@
       <c r="B334">
         <v>1517</v>
       </c>
-      <c r="C334" s="1">
-        <v>45335</v>
+      <c r="C334" s="2">
+        <v>45032</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.3">
@@ -4047,8 +4048,8 @@
       <c r="B335">
         <v>1979</v>
       </c>
-      <c r="C335" s="1">
-        <v>45336</v>
+      <c r="C335" s="2">
+        <v>45033</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.3">
@@ -4058,8 +4059,8 @@
       <c r="B336">
         <v>1906</v>
       </c>
-      <c r="C336" s="1">
-        <v>45337</v>
+      <c r="C336" s="2">
+        <v>45034</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.3">
@@ -4069,8 +4070,8 @@
       <c r="B337">
         <v>1712</v>
       </c>
-      <c r="C337" s="1">
-        <v>45338</v>
+      <c r="C337" s="2">
+        <v>45035</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.3">
@@ -4080,8 +4081,8 @@
       <c r="B338">
         <v>1504</v>
       </c>
-      <c r="C338" s="1">
-        <v>45339</v>
+      <c r="C338" s="2">
+        <v>45036</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.3">
@@ -4091,8 +4092,8 @@
       <c r="B339">
         <v>1616</v>
       </c>
-      <c r="C339" s="1">
-        <v>45340</v>
+      <c r="C339" s="2">
+        <v>45037</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.3">
@@ -4102,8 +4103,8 @@
       <c r="B340">
         <v>1894</v>
       </c>
-      <c r="C340" s="1">
-        <v>45341</v>
+      <c r="C340" s="2">
+        <v>45038</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.3">
@@ -4113,8 +4114,8 @@
       <c r="B341">
         <v>1639</v>
       </c>
-      <c r="C341" s="1">
-        <v>45342</v>
+      <c r="C341" s="2">
+        <v>45039</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.3">
@@ -4124,8 +4125,8 @@
       <c r="B342">
         <v>2088</v>
       </c>
-      <c r="C342" s="1">
-        <v>45343</v>
+      <c r="C342" s="2">
+        <v>45040</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.3">
@@ -4135,8 +4136,8 @@
       <c r="B343">
         <v>1779</v>
       </c>
-      <c r="C343" s="1">
-        <v>45344</v>
+      <c r="C343" s="2">
+        <v>45041</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.3">
@@ -4146,8 +4147,8 @@
       <c r="B344">
         <v>1609</v>
       </c>
-      <c r="C344" s="1">
-        <v>45345</v>
+      <c r="C344" s="2">
+        <v>45042</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.3">
@@ -4157,8 +4158,8 @@
       <c r="B345">
         <v>2089</v>
       </c>
-      <c r="C345" s="1">
-        <v>45346</v>
+      <c r="C345" s="2">
+        <v>45043</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.3">
@@ -4168,8 +4169,8 @@
       <c r="B346">
         <v>1711</v>
       </c>
-      <c r="C346" s="1">
-        <v>45347</v>
+      <c r="C346" s="2">
+        <v>45044</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.3">
@@ -4179,8 +4180,8 @@
       <c r="B347">
         <v>1950</v>
       </c>
-      <c r="C347" s="1">
-        <v>45348</v>
+      <c r="C347" s="2">
+        <v>45045</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.3">
@@ -4190,8 +4191,8 @@
       <c r="B348">
         <v>1601</v>
       </c>
-      <c r="C348" s="1">
-        <v>45349</v>
+      <c r="C348" s="2">
+        <v>45046</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.3">
@@ -4201,8 +4202,8 @@
       <c r="B349">
         <v>2020</v>
       </c>
-      <c r="C349" s="1">
-        <v>45350</v>
+      <c r="C349" s="2">
+        <v>45047</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.3">
@@ -4212,8 +4213,8 @@
       <c r="B350">
         <v>1792</v>
       </c>
-      <c r="C350" s="1">
-        <v>45351</v>
+      <c r="C350" s="2">
+        <v>45048</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.3">
@@ -4223,8 +4224,8 @@
       <c r="B351">
         <v>2024</v>
       </c>
-      <c r="C351" s="1">
-        <v>45352</v>
+      <c r="C351" s="2">
+        <v>45049</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.3">
@@ -4234,8 +4235,8 @@
       <c r="B352">
         <v>1576</v>
       </c>
-      <c r="C352" s="1">
-        <v>45353</v>
+      <c r="C352" s="2">
+        <v>45050</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.3">
@@ -4245,8 +4246,8 @@
       <c r="B353">
         <v>2041</v>
       </c>
-      <c r="C353" s="1">
-        <v>45354</v>
+      <c r="C353" s="2">
+        <v>45051</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.3">
@@ -4256,8 +4257,8 @@
       <c r="B354">
         <v>1726</v>
       </c>
-      <c r="C354" s="1">
-        <v>45355</v>
+      <c r="C354" s="2">
+        <v>45052</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.3">
@@ -4267,8 +4268,8 @@
       <c r="B355">
         <v>2061</v>
       </c>
-      <c r="C355" s="1">
-        <v>45356</v>
+      <c r="C355" s="2">
+        <v>45053</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.3">
@@ -4278,8 +4279,8 @@
       <c r="B356">
         <v>1830</v>
       </c>
-      <c r="C356" s="1">
-        <v>45357</v>
+      <c r="C356" s="2">
+        <v>45054</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.3">
@@ -4289,8 +4290,8 @@
       <c r="B357">
         <v>2057</v>
       </c>
-      <c r="C357" s="1">
-        <v>45358</v>
+      <c r="C357" s="2">
+        <v>45055</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.3">
@@ -4300,8 +4301,8 @@
       <c r="B358">
         <v>1924</v>
       </c>
-      <c r="C358" s="1">
-        <v>45359</v>
+      <c r="C358" s="2">
+        <v>45056</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.3">
@@ -4311,8 +4312,8 @@
       <c r="B359">
         <v>1767</v>
       </c>
-      <c r="C359" s="1">
-        <v>45360</v>
+      <c r="C359" s="2">
+        <v>45057</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.3">
@@ -4322,8 +4323,8 @@
       <c r="B360">
         <v>1566</v>
       </c>
-      <c r="C360" s="1">
-        <v>45361</v>
+      <c r="C360" s="2">
+        <v>45058</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.3">
@@ -4333,8 +4334,8 @@
       <c r="B361">
         <v>1519</v>
       </c>
-      <c r="C361" s="1">
-        <v>45362</v>
+      <c r="C361" s="2">
+        <v>45059</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.3">
@@ -4344,8 +4345,8 @@
       <c r="B362">
         <v>1806</v>
       </c>
-      <c r="C362" s="1">
-        <v>45363</v>
+      <c r="C362" s="2">
+        <v>45060</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.3">
@@ -4355,8 +4356,8 @@
       <c r="B363">
         <v>1830</v>
       </c>
-      <c r="C363" s="1">
-        <v>45364</v>
+      <c r="C363" s="2">
+        <v>45061</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.3">
@@ -4366,8 +4367,8 @@
       <c r="B364">
         <v>1512</v>
       </c>
-      <c r="C364" s="1">
-        <v>45365</v>
+      <c r="C364" s="2">
+        <v>45062</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.3">
@@ -4377,8 +4378,8 @@
       <c r="B365">
         <v>1882</v>
       </c>
-      <c r="C365" s="1">
-        <v>45366</v>
+      <c r="C365" s="2">
+        <v>45063</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.3">
@@ -4388,8 +4389,8 @@
       <c r="B366">
         <v>1950</v>
       </c>
-      <c r="C366" s="1">
-        <v>45367</v>
+      <c r="C366" s="2">
+        <v>45064</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.3">
@@ -4399,8 +4400,8 @@
       <c r="B367">
         <v>1655</v>
       </c>
-      <c r="C367" s="1">
-        <v>45368</v>
+      <c r="C367" s="2">
+        <v>45065</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.3">
@@ -4410,8 +4411,8 @@
       <c r="B368">
         <v>1935</v>
       </c>
-      <c r="C368" s="1">
-        <v>45369</v>
+      <c r="C368" s="2">
+        <v>45066</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.3">
@@ -4421,8 +4422,8 @@
       <c r="B369">
         <v>1823</v>
       </c>
-      <c r="C369" s="1">
-        <v>45370</v>
+      <c r="C369" s="2">
+        <v>45067</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.3">
@@ -4432,8 +4433,8 @@
       <c r="B370">
         <v>1627</v>
       </c>
-      <c r="C370" s="1">
-        <v>45371</v>
+      <c r="C370" s="2">
+        <v>45068</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.3">
@@ -4443,8 +4444,8 @@
       <c r="B371">
         <v>2030</v>
       </c>
-      <c r="C371" s="1">
-        <v>45372</v>
+      <c r="C371" s="2">
+        <v>45069</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.3">
@@ -4454,8 +4455,8 @@
       <c r="B372">
         <v>2029</v>
       </c>
-      <c r="C372" s="1">
-        <v>45373</v>
+      <c r="C372" s="2">
+        <v>45070</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.3">
@@ -4465,8 +4466,8 @@
       <c r="B373">
         <v>2022</v>
       </c>
-      <c r="C373" s="1">
-        <v>45374</v>
+      <c r="C373" s="2">
+        <v>45071</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.3">
@@ -4476,8 +4477,8 @@
       <c r="B374">
         <v>1833</v>
       </c>
-      <c r="C374" s="1">
-        <v>45375</v>
+      <c r="C374" s="2">
+        <v>45072</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.3">
@@ -4487,8 +4488,8 @@
       <c r="B375">
         <v>1586</v>
       </c>
-      <c r="C375" s="1">
-        <v>45376</v>
+      <c r="C375" s="2">
+        <v>45073</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.3">
@@ -4498,8 +4499,8 @@
       <c r="B376">
         <v>1898</v>
       </c>
-      <c r="C376" s="1">
-        <v>45377</v>
+      <c r="C376" s="2">
+        <v>45074</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.3">
@@ -4509,8 +4510,8 @@
       <c r="B377">
         <v>1766</v>
       </c>
-      <c r="C377" s="1">
-        <v>45378</v>
+      <c r="C377" s="2">
+        <v>45075</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.3">
@@ -4520,8 +4521,8 @@
       <c r="B378">
         <v>1796</v>
       </c>
-      <c r="C378" s="1">
-        <v>45379</v>
+      <c r="C378" s="2">
+        <v>45076</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.3">
@@ -4531,8 +4532,8 @@
       <c r="B379">
         <v>1851</v>
       </c>
-      <c r="C379" s="1">
-        <v>45380</v>
+      <c r="C379" s="2">
+        <v>45077</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.3">
@@ -4542,8 +4543,8 @@
       <c r="B380">
         <v>1846</v>
       </c>
-      <c r="C380" s="1">
-        <v>45381</v>
+      <c r="C380" s="2">
+        <v>45078</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.3">
@@ -4553,8 +4554,8 @@
       <c r="B381">
         <v>1901</v>
       </c>
-      <c r="C381" s="1">
-        <v>45382</v>
+      <c r="C381" s="2">
+        <v>45079</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.3">
@@ -4564,8 +4565,8 @@
       <c r="B382">
         <v>1938</v>
       </c>
-      <c r="C382" s="1">
-        <v>45383</v>
+      <c r="C382" s="2">
+        <v>45080</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.3">
@@ -4575,8 +4576,8 @@
       <c r="B383">
         <v>1722</v>
       </c>
-      <c r="C383" s="1">
-        <v>45384</v>
+      <c r="C383" s="2">
+        <v>45081</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.3">
@@ -4586,8 +4587,8 @@
       <c r="B384">
         <v>1975</v>
       </c>
-      <c r="C384" s="1">
-        <v>45385</v>
+      <c r="C384" s="2">
+        <v>45082</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.3">
@@ -4597,8 +4598,8 @@
       <c r="B385">
         <v>1508</v>
       </c>
-      <c r="C385" s="1">
-        <v>45386</v>
+      <c r="C385" s="2">
+        <v>45083</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.3">
@@ -4608,8 +4609,8 @@
       <c r="B386">
         <v>1703</v>
       </c>
-      <c r="C386" s="1">
-        <v>45387</v>
+      <c r="C386" s="2">
+        <v>45084</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.3">
@@ -4619,8 +4620,8 @@
       <c r="B387">
         <v>1646</v>
       </c>
-      <c r="C387" s="1">
-        <v>45388</v>
+      <c r="C387" s="2">
+        <v>45085</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.3">
@@ -4630,8 +4631,8 @@
       <c r="B388">
         <v>1892</v>
       </c>
-      <c r="C388" s="1">
-        <v>45389</v>
+      <c r="C388" s="2">
+        <v>45086</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.3">
@@ -4641,8 +4642,8 @@
       <c r="B389">
         <v>1812</v>
       </c>
-      <c r="C389" s="1">
-        <v>45390</v>
+      <c r="C389" s="2">
+        <v>45087</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.3">
@@ -4652,8 +4653,8 @@
       <c r="B390">
         <v>1584</v>
       </c>
-      <c r="C390" s="1">
-        <v>45391</v>
+      <c r="C390" s="2">
+        <v>45088</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.3">
@@ -4663,8 +4664,8 @@
       <c r="B391">
         <v>1770</v>
       </c>
-      <c r="C391" s="1">
-        <v>45392</v>
+      <c r="C391" s="2">
+        <v>45089</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.3">
@@ -4674,8 +4675,8 @@
       <c r="B392">
         <v>1804</v>
       </c>
-      <c r="C392" s="1">
-        <v>45393</v>
+      <c r="C392" s="2">
+        <v>45090</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.3">
@@ -4685,8 +4686,8 @@
       <c r="B393">
         <v>1897</v>
       </c>
-      <c r="C393" s="1">
-        <v>45394</v>
+      <c r="C393" s="2">
+        <v>45091</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.3">
@@ -4696,8 +4697,8 @@
       <c r="B394">
         <v>2041</v>
       </c>
-      <c r="C394" s="1">
-        <v>45395</v>
+      <c r="C394" s="2">
+        <v>45092</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.3">
@@ -4707,8 +4708,8 @@
       <c r="B395">
         <v>1968</v>
       </c>
-      <c r="C395" s="1">
-        <v>45396</v>
+      <c r="C395" s="2">
+        <v>45093</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.3">
@@ -4718,8 +4719,8 @@
       <c r="B396">
         <v>1606</v>
       </c>
-      <c r="C396" s="1">
-        <v>45397</v>
+      <c r="C396" s="2">
+        <v>45094</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.3">
@@ -4729,8 +4730,8 @@
       <c r="B397">
         <v>1632</v>
       </c>
-      <c r="C397" s="1">
-        <v>45398</v>
+      <c r="C397" s="2">
+        <v>45095</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.3">
@@ -4740,8 +4741,8 @@
       <c r="B398">
         <v>2081</v>
       </c>
-      <c r="C398" s="1">
-        <v>45399</v>
+      <c r="C398" s="2">
+        <v>45096</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.3">
@@ -4751,8 +4752,8 @@
       <c r="B399">
         <v>1570</v>
       </c>
-      <c r="C399" s="1">
-        <v>45400</v>
+      <c r="C399" s="2">
+        <v>45097</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.3">
@@ -4762,8 +4763,8 @@
       <c r="B400">
         <v>1688</v>
       </c>
-      <c r="C400" s="1">
-        <v>45401</v>
+      <c r="C400" s="2">
+        <v>45098</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.3">
@@ -4773,8 +4774,8 @@
       <c r="B401">
         <v>1527</v>
       </c>
-      <c r="C401" s="1">
-        <v>45402</v>
+      <c r="C401" s="2">
+        <v>45099</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.3">
@@ -4784,8 +4785,8 @@
       <c r="B402">
         <v>1788</v>
       </c>
-      <c r="C402" s="1">
-        <v>45403</v>
+      <c r="C402" s="2">
+        <v>45100</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.3">
@@ -4795,8 +4796,8 @@
       <c r="B403">
         <v>1554</v>
       </c>
-      <c r="C403" s="1">
-        <v>45404</v>
+      <c r="C403" s="2">
+        <v>45101</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.3">
@@ -4806,8 +4807,8 @@
       <c r="B404">
         <v>1625</v>
       </c>
-      <c r="C404" s="1">
-        <v>45405</v>
+      <c r="C404" s="2">
+        <v>45102</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.3">
@@ -4817,8 +4818,8 @@
       <c r="B405">
         <v>2071</v>
       </c>
-      <c r="C405" s="1">
-        <v>45406</v>
+      <c r="C405" s="2">
+        <v>45103</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.3">
@@ -4828,8 +4829,8 @@
       <c r="B406">
         <v>1934</v>
       </c>
-      <c r="C406" s="1">
-        <v>45407</v>
+      <c r="C406" s="2">
+        <v>45104</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.3">
@@ -4839,8 +4840,8 @@
       <c r="B407">
         <v>1730</v>
       </c>
-      <c r="C407" s="1">
-        <v>45408</v>
+      <c r="C407" s="2">
+        <v>45105</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.3">
@@ -4850,8 +4851,8 @@
       <c r="B408">
         <v>1531</v>
       </c>
-      <c r="C408" s="1">
-        <v>45409</v>
+      <c r="C408" s="2">
+        <v>45106</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.3">
@@ -4861,8 +4862,8 @@
       <c r="B409">
         <v>1991</v>
       </c>
-      <c r="C409" s="1">
-        <v>45410</v>
+      <c r="C409" s="2">
+        <v>45107</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.3">
@@ -4872,8 +4873,8 @@
       <c r="B410">
         <v>1505</v>
       </c>
-      <c r="C410" s="1">
-        <v>45411</v>
+      <c r="C410" s="2">
+        <v>45108</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.3">
@@ -4883,8 +4884,8 @@
       <c r="B411">
         <v>1947</v>
       </c>
-      <c r="C411" s="1">
-        <v>45412</v>
+      <c r="C411" s="2">
+        <v>45109</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.3">
@@ -4894,8 +4895,8 @@
       <c r="B412">
         <v>1526</v>
       </c>
-      <c r="C412" s="1">
-        <v>45413</v>
+      <c r="C412" s="2">
+        <v>45110</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.3">
@@ -4905,8 +4906,8 @@
       <c r="B413">
         <v>1815</v>
       </c>
-      <c r="C413" s="1">
-        <v>45414</v>
+      <c r="C413" s="2">
+        <v>45111</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.3">
@@ -4916,8 +4917,8 @@
       <c r="B414">
         <v>1752</v>
       </c>
-      <c r="C414" s="1">
-        <v>45415</v>
+      <c r="C414" s="2">
+        <v>45112</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.3">
@@ -4927,8 +4928,8 @@
       <c r="B415">
         <v>2080</v>
       </c>
-      <c r="C415" s="1">
-        <v>45416</v>
+      <c r="C415" s="2">
+        <v>45113</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.3">
@@ -4938,8 +4939,8 @@
       <c r="B416">
         <v>1990</v>
       </c>
-      <c r="C416" s="1">
-        <v>45417</v>
+      <c r="C416" s="2">
+        <v>45114</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.3">
@@ -4949,8 +4950,8 @@
       <c r="B417">
         <v>1619</v>
       </c>
-      <c r="C417" s="1">
-        <v>45418</v>
+      <c r="C417" s="2">
+        <v>45115</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.3">
@@ -4960,8 +4961,8 @@
       <c r="B418">
         <v>1881</v>
       </c>
-      <c r="C418" s="1">
-        <v>45419</v>
+      <c r="C418" s="2">
+        <v>45116</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.3">
@@ -4971,8 +4972,8 @@
       <c r="B419">
         <v>2040</v>
       </c>
-      <c r="C419" s="1">
-        <v>45420</v>
+      <c r="C419" s="2">
+        <v>45117</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.3">
@@ -4982,8 +4983,8 @@
       <c r="B420">
         <v>1974</v>
       </c>
-      <c r="C420" s="1">
-        <v>45421</v>
+      <c r="C420" s="2">
+        <v>45118</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.3">
@@ -4993,8 +4994,8 @@
       <c r="B421">
         <v>1547</v>
       </c>
-      <c r="C421" s="1">
-        <v>45422</v>
+      <c r="C421" s="2">
+        <v>45119</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.3">
@@ -5004,8 +5005,8 @@
       <c r="B422">
         <v>1500</v>
       </c>
-      <c r="C422" s="1">
-        <v>45423</v>
+      <c r="C422" s="2">
+        <v>45120</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.3">
@@ -5015,8 +5016,8 @@
       <c r="B423">
         <v>1827</v>
       </c>
-      <c r="C423" s="1">
-        <v>45424</v>
+      <c r="C423" s="2">
+        <v>45121</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.3">
@@ -5026,8 +5027,8 @@
       <c r="B424">
         <v>1543</v>
       </c>
-      <c r="C424" s="1">
-        <v>45425</v>
+      <c r="C424" s="2">
+        <v>45122</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.3">
@@ -5037,8 +5038,8 @@
       <c r="B425">
         <v>1659</v>
       </c>
-      <c r="C425" s="1">
-        <v>45426</v>
+      <c r="C425" s="2">
+        <v>45123</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.3">
@@ -5048,8 +5049,8 @@
       <c r="B426">
         <v>1681</v>
       </c>
-      <c r="C426" s="1">
-        <v>45427</v>
+      <c r="C426" s="2">
+        <v>45124</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.3">
@@ -5059,8 +5060,8 @@
       <c r="B427">
         <v>1681</v>
       </c>
-      <c r="C427" s="1">
-        <v>45428</v>
+      <c r="C427" s="2">
+        <v>45125</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.3">
@@ -5070,8 +5071,8 @@
       <c r="B428">
         <v>1795</v>
       </c>
-      <c r="C428" s="1">
-        <v>45429</v>
+      <c r="C428" s="2">
+        <v>45126</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.3">
@@ -5081,8 +5082,8 @@
       <c r="B429">
         <v>1574</v>
       </c>
-      <c r="C429" s="1">
-        <v>45430</v>
+      <c r="C429" s="2">
+        <v>45127</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.3">
@@ -5092,8 +5093,8 @@
       <c r="B430">
         <v>1848</v>
       </c>
-      <c r="C430" s="1">
-        <v>45431</v>
+      <c r="C430" s="2">
+        <v>45128</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.3">
@@ -5103,8 +5104,8 @@
       <c r="B431">
         <v>2038</v>
       </c>
-      <c r="C431" s="1">
-        <v>45432</v>
+      <c r="C431" s="2">
+        <v>45129</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.3">
@@ -5114,8 +5115,8 @@
       <c r="B432">
         <v>1742</v>
       </c>
-      <c r="C432" s="1">
-        <v>45433</v>
+      <c r="C432" s="2">
+        <v>45130</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.3">
@@ -5125,8 +5126,8 @@
       <c r="B433">
         <v>1540</v>
       </c>
-      <c r="C433" s="1">
-        <v>45434</v>
+      <c r="C433" s="2">
+        <v>45131</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.3">
@@ -5136,8 +5137,8 @@
       <c r="B434">
         <v>1774</v>
       </c>
-      <c r="C434" s="1">
-        <v>45435</v>
+      <c r="C434" s="2">
+        <v>45132</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.3">
@@ -5147,8 +5148,8 @@
       <c r="B435">
         <v>1835</v>
       </c>
-      <c r="C435" s="1">
-        <v>45436</v>
+      <c r="C435" s="2">
+        <v>45133</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.3">
@@ -5158,8 +5159,8 @@
       <c r="B436">
         <v>1713</v>
       </c>
-      <c r="C436" s="1">
-        <v>45437</v>
+      <c r="C436" s="2">
+        <v>45134</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.3">
@@ -5169,8 +5170,8 @@
       <c r="B437">
         <v>1811</v>
       </c>
-      <c r="C437" s="1">
-        <v>45438</v>
+      <c r="C437" s="2">
+        <v>45135</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.3">
@@ -5180,8 +5181,8 @@
       <c r="B438">
         <v>1810</v>
       </c>
-      <c r="C438" s="1">
-        <v>45439</v>
+      <c r="C438" s="2">
+        <v>45136</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.3">
@@ -5191,8 +5192,8 @@
       <c r="B439">
         <v>1551</v>
       </c>
-      <c r="C439" s="1">
-        <v>45440</v>
+      <c r="C439" s="2">
+        <v>45137</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.3">
@@ -5202,8 +5203,8 @@
       <c r="B440">
         <v>1597</v>
       </c>
-      <c r="C440" s="1">
-        <v>45441</v>
+      <c r="C440" s="2">
+        <v>45138</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.3">
@@ -5213,8 +5214,8 @@
       <c r="B441">
         <v>2090</v>
       </c>
-      <c r="C441" s="1">
-        <v>45442</v>
+      <c r="C441" s="2">
+        <v>45139</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.3">
@@ -5224,8 +5225,8 @@
       <c r="B442">
         <v>1559</v>
       </c>
-      <c r="C442" s="1">
-        <v>45443</v>
+      <c r="C442" s="2">
+        <v>45140</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.3">
@@ -5235,8 +5236,8 @@
       <c r="B443">
         <v>1715</v>
       </c>
-      <c r="C443" s="1">
-        <v>45444</v>
+      <c r="C443" s="2">
+        <v>45141</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.3">
@@ -5246,8 +5247,8 @@
       <c r="B444">
         <v>1671</v>
       </c>
-      <c r="C444" s="1">
-        <v>45445</v>
+      <c r="C444" s="2">
+        <v>45142</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.3">
@@ -5257,8 +5258,8 @@
       <c r="B445">
         <v>1926</v>
       </c>
-      <c r="C445" s="1">
-        <v>45446</v>
+      <c r="C445" s="2">
+        <v>45143</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.3">
@@ -5268,8 +5269,8 @@
       <c r="B446">
         <v>1587</v>
       </c>
-      <c r="C446" s="1">
-        <v>45447</v>
+      <c r="C446" s="2">
+        <v>45144</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.3">
@@ -5279,8 +5280,8 @@
       <c r="B447">
         <v>1937</v>
       </c>
-      <c r="C447" s="1">
-        <v>45448</v>
+      <c r="C447" s="2">
+        <v>45145</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.3">
@@ -5290,8 +5291,8 @@
       <c r="B448">
         <v>2091</v>
       </c>
-      <c r="C448" s="1">
-        <v>45449</v>
+      <c r="C448" s="2">
+        <v>45146</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.3">
@@ -5301,8 +5302,8 @@
       <c r="B449">
         <v>1507</v>
       </c>
-      <c r="C449" s="1">
-        <v>45450</v>
+      <c r="C449" s="2">
+        <v>45147</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.3">
@@ -5312,8 +5313,8 @@
       <c r="B450">
         <v>1615</v>
       </c>
-      <c r="C450" s="1">
-        <v>45451</v>
+      <c r="C450" s="2">
+        <v>45148</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.3">
@@ -5323,8 +5324,8 @@
       <c r="B451">
         <v>1550</v>
       </c>
-      <c r="C451" s="1">
-        <v>45452</v>
+      <c r="C451" s="2">
+        <v>45149</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.3">
@@ -5334,8 +5335,8 @@
       <c r="B452">
         <v>2011</v>
       </c>
-      <c r="C452" s="1">
-        <v>45453</v>
+      <c r="C452" s="2">
+        <v>45150</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.3">
@@ -5345,8 +5346,8 @@
       <c r="B453">
         <v>1539</v>
       </c>
-      <c r="C453" s="1">
-        <v>45454</v>
+      <c r="C453" s="2">
+        <v>45151</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.3">
@@ -5356,8 +5357,8 @@
       <c r="B454">
         <v>1778</v>
       </c>
-      <c r="C454" s="1">
-        <v>45455</v>
+      <c r="C454" s="2">
+        <v>45152</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.3">
@@ -5367,8 +5368,8 @@
       <c r="B455">
         <v>1840</v>
       </c>
-      <c r="C455" s="1">
-        <v>45456</v>
+      <c r="C455" s="2">
+        <v>45153</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.3">
@@ -5378,8 +5379,8 @@
       <c r="B456">
         <v>1538</v>
       </c>
-      <c r="C456" s="1">
-        <v>45457</v>
+      <c r="C456" s="2">
+        <v>45154</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.3">
@@ -5389,8 +5390,8 @@
       <c r="B457">
         <v>1627</v>
       </c>
-      <c r="C457" s="1">
-        <v>45458</v>
+      <c r="C457" s="2">
+        <v>45155</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.3">
@@ -5400,8 +5401,8 @@
       <c r="B458">
         <v>1933</v>
       </c>
-      <c r="C458" s="1">
-        <v>45459</v>
+      <c r="C458" s="2">
+        <v>45156</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.3">
@@ -5411,8 +5412,8 @@
       <c r="B459">
         <v>1580</v>
       </c>
-      <c r="C459" s="1">
-        <v>45460</v>
+      <c r="C459" s="2">
+        <v>45157</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.3">
@@ -5422,8 +5423,8 @@
       <c r="B460">
         <v>1588</v>
       </c>
-      <c r="C460" s="1">
-        <v>45461</v>
+      <c r="C460" s="2">
+        <v>45158</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.3">
@@ -5433,8 +5434,8 @@
       <c r="B461">
         <v>1529</v>
       </c>
-      <c r="C461" s="1">
-        <v>45462</v>
+      <c r="C461" s="2">
+        <v>45159</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.3">
@@ -5444,8 +5445,8 @@
       <c r="B462">
         <v>1959</v>
       </c>
-      <c r="C462" s="1">
-        <v>45463</v>
+      <c r="C462" s="2">
+        <v>45160</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.3">
@@ -5455,8 +5456,8 @@
       <c r="B463">
         <v>1540</v>
       </c>
-      <c r="C463" s="1">
-        <v>45464</v>
+      <c r="C463" s="2">
+        <v>45161</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.3">
@@ -5466,8 +5467,8 @@
       <c r="B464">
         <v>1513</v>
       </c>
-      <c r="C464" s="1">
-        <v>45465</v>
+      <c r="C464" s="2">
+        <v>45162</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.3">
@@ -5477,8 +5478,8 @@
       <c r="B465">
         <v>1563</v>
       </c>
-      <c r="C465" s="1">
-        <v>45466</v>
+      <c r="C465" s="2">
+        <v>45163</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.3">
@@ -5488,8 +5489,8 @@
       <c r="B466">
         <v>1672</v>
       </c>
-      <c r="C466" s="1">
-        <v>45467</v>
+      <c r="C466" s="2">
+        <v>45164</v>
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.3">
@@ -5499,8 +5500,8 @@
       <c r="B467">
         <v>1897</v>
       </c>
-      <c r="C467" s="1">
-        <v>45468</v>
+      <c r="C467" s="2">
+        <v>45165</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.3">
@@ -5510,8 +5511,8 @@
       <c r="B468">
         <v>1546</v>
       </c>
-      <c r="C468" s="1">
-        <v>45469</v>
+      <c r="C468" s="2">
+        <v>45166</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.3">
@@ -5521,8 +5522,8 @@
       <c r="B469">
         <v>1920</v>
       </c>
-      <c r="C469" s="1">
-        <v>45470</v>
+      <c r="C469" s="2">
+        <v>45167</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.3">
@@ -5532,8 +5533,8 @@
       <c r="B470">
         <v>1936</v>
       </c>
-      <c r="C470" s="1">
-        <v>45471</v>
+      <c r="C470" s="2">
+        <v>45168</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.3">
@@ -5543,8 +5544,8 @@
       <c r="B471">
         <v>1887</v>
       </c>
-      <c r="C471" s="1">
-        <v>45472</v>
+      <c r="C471" s="2">
+        <v>45169</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.3">
@@ -5554,8 +5555,8 @@
       <c r="B472">
         <v>1638</v>
       </c>
-      <c r="C472" s="1">
-        <v>45473</v>
+      <c r="C472" s="2">
+        <v>45170</v>
       </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.3">
@@ -5565,8 +5566,8 @@
       <c r="B473">
         <v>1621</v>
       </c>
-      <c r="C473" s="1">
-        <v>45474</v>
+      <c r="C473" s="2">
+        <v>45171</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.3">
@@ -5576,8 +5577,8 @@
       <c r="B474">
         <v>1893</v>
       </c>
-      <c r="C474" s="1">
-        <v>45475</v>
+      <c r="C474" s="2">
+        <v>45172</v>
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.3">
@@ -5587,8 +5588,8 @@
       <c r="B475">
         <v>1865</v>
       </c>
-      <c r="C475" s="1">
-        <v>45476</v>
+      <c r="C475" s="2">
+        <v>45173</v>
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.3">
@@ -5598,8 +5599,8 @@
       <c r="B476">
         <v>1811</v>
       </c>
-      <c r="C476" s="1">
-        <v>45477</v>
+      <c r="C476" s="2">
+        <v>45174</v>
       </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.3">
@@ -5609,8 +5610,8 @@
       <c r="B477">
         <v>1890</v>
       </c>
-      <c r="C477" s="1">
-        <v>45478</v>
+      <c r="C477" s="2">
+        <v>45175</v>
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.3">
@@ -5620,8 +5621,8 @@
       <c r="B478">
         <v>2097</v>
       </c>
-      <c r="C478" s="1">
-        <v>45479</v>
+      <c r="C478" s="2">
+        <v>45176</v>
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.3">
@@ -5631,8 +5632,8 @@
       <c r="B479">
         <v>1985</v>
       </c>
-      <c r="C479" s="1">
-        <v>45480</v>
+      <c r="C479" s="2">
+        <v>45177</v>
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.3">
@@ -5642,8 +5643,8 @@
       <c r="B480">
         <v>1593</v>
       </c>
-      <c r="C480" s="1">
-        <v>45481</v>
+      <c r="C480" s="2">
+        <v>45178</v>
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.3">
@@ -5653,8 +5654,8 @@
       <c r="B481">
         <v>1646</v>
       </c>
-      <c r="C481" s="1">
-        <v>45482</v>
+      <c r="C481" s="2">
+        <v>45179</v>
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.3">
@@ -5664,8 +5665,8 @@
       <c r="B482">
         <v>1701</v>
       </c>
-      <c r="C482" s="1">
-        <v>45483</v>
+      <c r="C482" s="2">
+        <v>45180</v>
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.3">
@@ -5675,8 +5676,8 @@
       <c r="B483">
         <v>1812</v>
       </c>
-      <c r="C483" s="1">
-        <v>45484</v>
+      <c r="C483" s="2">
+        <v>45181</v>
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.3">
@@ -5686,8 +5687,8 @@
       <c r="B484">
         <v>1566</v>
       </c>
-      <c r="C484" s="1">
-        <v>45485</v>
+      <c r="C484" s="2">
+        <v>45182</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.3">
@@ -5697,8 +5698,8 @@
       <c r="B485">
         <v>1728</v>
       </c>
-      <c r="C485" s="1">
-        <v>45486</v>
+      <c r="C485" s="2">
+        <v>45183</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.3">
@@ -5708,8 +5709,8 @@
       <c r="B486">
         <v>1665</v>
       </c>
-      <c r="C486" s="1">
-        <v>45487</v>
+      <c r="C486" s="2">
+        <v>45184</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.3">
@@ -5719,8 +5720,8 @@
       <c r="B487">
         <v>1686</v>
       </c>
-      <c r="C487" s="1">
-        <v>45488</v>
+      <c r="C487" s="2">
+        <v>45185</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.3">
@@ -5730,8 +5731,8 @@
       <c r="B488">
         <v>1967</v>
       </c>
-      <c r="C488" s="1">
-        <v>45489</v>
+      <c r="C488" s="2">
+        <v>45186</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.3">
@@ -5741,8 +5742,8 @@
       <c r="B489">
         <v>1643</v>
       </c>
-      <c r="C489" s="1">
-        <v>45490</v>
+      <c r="C489" s="2">
+        <v>45187</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.3">
@@ -5752,8 +5753,8 @@
       <c r="B490">
         <v>1856</v>
       </c>
-      <c r="C490" s="1">
-        <v>45491</v>
+      <c r="C490" s="2">
+        <v>45188</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.3">
@@ -5763,8 +5764,8 @@
       <c r="B491">
         <v>1657</v>
       </c>
-      <c r="C491" s="1">
-        <v>45492</v>
+      <c r="C491" s="2">
+        <v>45189</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.3">
@@ -5774,8 +5775,8 @@
       <c r="B492">
         <v>1661</v>
       </c>
-      <c r="C492" s="1">
-        <v>45493</v>
+      <c r="C492" s="2">
+        <v>45190</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.3">
@@ -5785,8 +5786,8 @@
       <c r="B493">
         <v>1918</v>
       </c>
-      <c r="C493" s="1">
-        <v>45494</v>
+      <c r="C493" s="2">
+        <v>45191</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.3">
@@ -5796,8 +5797,8 @@
       <c r="B494">
         <v>1674</v>
       </c>
-      <c r="C494" s="1">
-        <v>45495</v>
+      <c r="C494" s="2">
+        <v>45192</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.3">
@@ -5807,8 +5808,8 @@
       <c r="B495">
         <v>1884</v>
       </c>
-      <c r="C495" s="1">
-        <v>45496</v>
+      <c r="C495" s="2">
+        <v>45193</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.3">
@@ -5818,8 +5819,8 @@
       <c r="B496">
         <v>2007</v>
       </c>
-      <c r="C496" s="1">
-        <v>45497</v>
+      <c r="C496" s="2">
+        <v>45194</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.3">
@@ -5829,8 +5830,8 @@
       <c r="B497">
         <v>1643</v>
       </c>
-      <c r="C497" s="1">
-        <v>45498</v>
+      <c r="C497" s="2">
+        <v>45195</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.3">
@@ -5840,8 +5841,8 @@
       <c r="B498">
         <v>1973</v>
       </c>
-      <c r="C498" s="1">
-        <v>45499</v>
+      <c r="C498" s="2">
+        <v>45196</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.3">
@@ -5851,8 +5852,8 @@
       <c r="B499">
         <v>1633</v>
       </c>
-      <c r="C499" s="1">
-        <v>45500</v>
+      <c r="C499" s="2">
+        <v>45197</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.3">
@@ -5862,8 +5863,8 @@
       <c r="B500">
         <v>1947</v>
       </c>
-      <c r="C500" s="1">
-        <v>45501</v>
+      <c r="C500" s="2">
+        <v>45198</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.3">
@@ -5873,8 +5874,8 @@
       <c r="B501">
         <v>1832</v>
       </c>
-      <c r="C501" s="1">
-        <v>45502</v>
+      <c r="C501" s="2">
+        <v>45199</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.3">
@@ -5884,8 +5885,8 @@
       <c r="B502">
         <v>1754</v>
       </c>
-      <c r="C502" s="1">
-        <v>45503</v>
+      <c r="C502" s="2">
+        <v>45200</v>
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.3">
@@ -5895,8 +5896,8 @@
       <c r="B503">
         <v>1910</v>
       </c>
-      <c r="C503" s="1">
-        <v>45504</v>
+      <c r="C503" s="2">
+        <v>45201</v>
       </c>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.3">
@@ -5906,8 +5907,8 @@
       <c r="B504">
         <v>1810</v>
       </c>
-      <c r="C504" s="1">
-        <v>45505</v>
+      <c r="C504" s="2">
+        <v>45202</v>
       </c>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.3">
@@ -5917,8 +5918,8 @@
       <c r="B505">
         <v>1650</v>
       </c>
-      <c r="C505" s="1">
-        <v>45506</v>
+      <c r="C505" s="2">
+        <v>45203</v>
       </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.3">
@@ -5928,8 +5929,8 @@
       <c r="B506">
         <v>1847</v>
       </c>
-      <c r="C506" s="1">
-        <v>45507</v>
+      <c r="C506" s="2">
+        <v>45204</v>
       </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.3">
@@ -5939,8 +5940,8 @@
       <c r="B507">
         <v>1717</v>
       </c>
-      <c r="C507" s="1">
-        <v>45508</v>
+      <c r="C507" s="2">
+        <v>45205</v>
       </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.3">
@@ -5950,8 +5951,8 @@
       <c r="B508">
         <v>2068</v>
       </c>
-      <c r="C508" s="1">
-        <v>45509</v>
+      <c r="C508" s="2">
+        <v>45206</v>
       </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.3">
@@ -5961,8 +5962,8 @@
       <c r="B509">
         <v>1711</v>
       </c>
-      <c r="C509" s="1">
-        <v>45510</v>
+      <c r="C509" s="2">
+        <v>45207</v>
       </c>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.3">
@@ -5972,8 +5973,8 @@
       <c r="B510">
         <v>1748</v>
       </c>
-      <c r="C510" s="1">
-        <v>45511</v>
+      <c r="C510" s="2">
+        <v>45208</v>
       </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.3">
@@ -5983,8 +5984,8 @@
       <c r="B511">
         <v>1827</v>
       </c>
-      <c r="C511" s="1">
-        <v>45512</v>
+      <c r="C511" s="2">
+        <v>45209</v>
       </c>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.3">
@@ -5994,8 +5995,8 @@
       <c r="B512">
         <v>1771</v>
       </c>
-      <c r="C512" s="1">
-        <v>45513</v>
+      <c r="C512" s="2">
+        <v>45210</v>
       </c>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.3">
@@ -6005,8 +6006,8 @@
       <c r="B513">
         <v>1853</v>
       </c>
-      <c r="C513" s="1">
-        <v>45514</v>
+      <c r="C513" s="2">
+        <v>45211</v>
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.3">
@@ -6016,8 +6017,8 @@
       <c r="B514">
         <v>1502</v>
       </c>
-      <c r="C514" s="1">
-        <v>45515</v>
+      <c r="C514" s="2">
+        <v>45212</v>
       </c>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.3">
@@ -6027,8 +6028,8 @@
       <c r="B515">
         <v>1885</v>
       </c>
-      <c r="C515" s="1">
-        <v>45516</v>
+      <c r="C515" s="2">
+        <v>45213</v>
       </c>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.3">
@@ -6038,8 +6039,8 @@
       <c r="B516">
         <v>1913</v>
       </c>
-      <c r="C516" s="1">
-        <v>45517</v>
+      <c r="C516" s="2">
+        <v>45214</v>
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.3">
@@ -6049,8 +6050,8 @@
       <c r="B517">
         <v>1709</v>
       </c>
-      <c r="C517" s="1">
-        <v>45518</v>
+      <c r="C517" s="2">
+        <v>45215</v>
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.3">
@@ -6060,8 +6061,8 @@
       <c r="B518">
         <v>1818</v>
       </c>
-      <c r="C518" s="1">
-        <v>45519</v>
+      <c r="C518" s="2">
+        <v>45216</v>
       </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.3">
@@ -6071,8 +6072,8 @@
       <c r="B519">
         <v>1575</v>
       </c>
-      <c r="C519" s="1">
-        <v>45520</v>
+      <c r="C519" s="2">
+        <v>45217</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.3">
@@ -6082,8 +6083,8 @@
       <c r="B520">
         <v>1817</v>
       </c>
-      <c r="C520" s="1">
-        <v>45521</v>
+      <c r="C520" s="2">
+        <v>45218</v>
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.3">
@@ -6093,8 +6094,8 @@
       <c r="B521">
         <v>1658</v>
       </c>
-      <c r="C521" s="1">
-        <v>45522</v>
+      <c r="C521" s="2">
+        <v>45219</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.3">
@@ -6104,8 +6105,8 @@
       <c r="B522">
         <v>1515</v>
       </c>
-      <c r="C522" s="1">
-        <v>45523</v>
+      <c r="C522" s="2">
+        <v>45220</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.3">
@@ -6115,8 +6116,8 @@
       <c r="B523">
         <v>1611</v>
       </c>
-      <c r="C523" s="1">
-        <v>45524</v>
+      <c r="C523" s="2">
+        <v>45221</v>
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.3">
@@ -6126,8 +6127,8 @@
       <c r="B524">
         <v>1741</v>
       </c>
-      <c r="C524" s="1">
-        <v>45525</v>
+      <c r="C524" s="2">
+        <v>45222</v>
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.3">
@@ -6137,8 +6138,8 @@
       <c r="B525">
         <v>1928</v>
       </c>
-      <c r="C525" s="1">
-        <v>45526</v>
+      <c r="C525" s="2">
+        <v>45223</v>
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.3">
@@ -6148,8 +6149,8 @@
       <c r="B526">
         <v>1991</v>
       </c>
-      <c r="C526" s="1">
-        <v>45527</v>
+      <c r="C526" s="2">
+        <v>45224</v>
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.3">
@@ -6159,8 +6160,8 @@
       <c r="B527">
         <v>1965</v>
       </c>
-      <c r="C527" s="1">
-        <v>45528</v>
+      <c r="C527" s="2">
+        <v>45225</v>
       </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.3">
@@ -6170,8 +6171,8 @@
       <c r="B528">
         <v>1639</v>
       </c>
-      <c r="C528" s="1">
-        <v>45529</v>
+      <c r="C528" s="2">
+        <v>45226</v>
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.3">
@@ -6181,8 +6182,8 @@
       <c r="B529">
         <v>2038</v>
       </c>
-      <c r="C529" s="1">
-        <v>45530</v>
+      <c r="C529" s="2">
+        <v>45227</v>
       </c>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.3">
@@ -6192,8 +6193,8 @@
       <c r="B530">
         <v>1788</v>
       </c>
-      <c r="C530" s="1">
-        <v>45531</v>
+      <c r="C530" s="2">
+        <v>45228</v>
       </c>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.3">
@@ -6203,8 +6204,8 @@
       <c r="B531">
         <v>1887</v>
       </c>
-      <c r="C531" s="1">
-        <v>45532</v>
+      <c r="C531" s="2">
+        <v>45229</v>
       </c>
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.3">
@@ -6214,8 +6215,8 @@
       <c r="B532">
         <v>1756</v>
       </c>
-      <c r="C532" s="1">
-        <v>45533</v>
+      <c r="C532" s="2">
+        <v>45230</v>
       </c>
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.3">
@@ -6225,8 +6226,8 @@
       <c r="B533">
         <v>1779</v>
       </c>
-      <c r="C533" s="1">
-        <v>45534</v>
+      <c r="C533" s="2">
+        <v>45231</v>
       </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.3">
@@ -6236,8 +6237,8 @@
       <c r="B534">
         <v>1689</v>
       </c>
-      <c r="C534" s="1">
-        <v>45535</v>
+      <c r="C534" s="2">
+        <v>45232</v>
       </c>
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.3">
@@ -6247,8 +6248,8 @@
       <c r="B535">
         <v>1861</v>
       </c>
-      <c r="C535" s="1">
-        <v>45536</v>
+      <c r="C535" s="2">
+        <v>45233</v>
       </c>
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.3">
@@ -6258,8 +6259,8 @@
       <c r="B536">
         <v>2030</v>
       </c>
-      <c r="C536" s="1">
-        <v>45537</v>
+      <c r="C536" s="2">
+        <v>45234</v>
       </c>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.3">
@@ -6269,8 +6270,8 @@
       <c r="B537">
         <v>1741</v>
       </c>
-      <c r="C537" s="1">
-        <v>45538</v>
+      <c r="C537" s="2">
+        <v>45235</v>
       </c>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.3">
@@ -6280,8 +6281,8 @@
       <c r="B538">
         <v>1804</v>
       </c>
-      <c r="C538" s="1">
-        <v>45539</v>
+      <c r="C538" s="2">
+        <v>45236</v>
       </c>
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.3">
@@ -6291,8 +6292,8 @@
       <c r="B539">
         <v>1718</v>
       </c>
-      <c r="C539" s="1">
-        <v>45540</v>
+      <c r="C539" s="2">
+        <v>45237</v>
       </c>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.3">
@@ -6302,8 +6303,8 @@
       <c r="B540">
         <v>1784</v>
       </c>
-      <c r="C540" s="1">
-        <v>45541</v>
+      <c r="C540" s="2">
+        <v>45238</v>
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.3">
@@ -6313,8 +6314,8 @@
       <c r="B541">
         <v>1633</v>
       </c>
-      <c r="C541" s="1">
-        <v>45542</v>
+      <c r="C541" s="2">
+        <v>45239</v>
       </c>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.3">
@@ -6324,8 +6325,338 @@
       <c r="B542">
         <v>1897</v>
       </c>
-      <c r="C542" s="1">
-        <v>45543</v>
+      <c r="C542" s="2">
+        <v>45240</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A543" t="s">
+        <v>0</v>
+      </c>
+      <c r="B543">
+        <v>1711</v>
+      </c>
+      <c r="C543" s="2">
+        <v>45241</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A544" t="s">
+        <v>0</v>
+      </c>
+      <c r="B544">
+        <v>1748</v>
+      </c>
+      <c r="C544" s="2">
+        <v>45242</v>
+      </c>
+    </row>
+    <row r="545" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A545" t="s">
+        <v>0</v>
+      </c>
+      <c r="B545">
+        <v>1827</v>
+      </c>
+      <c r="C545" s="2">
+        <v>45243</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A546" t="s">
+        <v>0</v>
+      </c>
+      <c r="B546">
+        <v>1771</v>
+      </c>
+      <c r="C546" s="2">
+        <v>45244</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A547" t="s">
+        <v>0</v>
+      </c>
+      <c r="B547">
+        <v>1853</v>
+      </c>
+      <c r="C547" s="2">
+        <v>45245</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A548" t="s">
+        <v>0</v>
+      </c>
+      <c r="B548">
+        <v>1502</v>
+      </c>
+      <c r="C548" s="2">
+        <v>45246</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A549" t="s">
+        <v>0</v>
+      </c>
+      <c r="B549">
+        <v>1885</v>
+      </c>
+      <c r="C549" s="2">
+        <v>45247</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A550" t="s">
+        <v>0</v>
+      </c>
+      <c r="B550">
+        <v>1913</v>
+      </c>
+      <c r="C550" s="2">
+        <v>45248</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A551" t="s">
+        <v>0</v>
+      </c>
+      <c r="B551">
+        <v>1709</v>
+      </c>
+      <c r="C551" s="2">
+        <v>45249</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A552" t="s">
+        <v>0</v>
+      </c>
+      <c r="B552">
+        <v>1818</v>
+      </c>
+      <c r="C552" s="2">
+        <v>45250</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A553" t="s">
+        <v>0</v>
+      </c>
+      <c r="B553">
+        <v>1575</v>
+      </c>
+      <c r="C553" s="2">
+        <v>45251</v>
+      </c>
+    </row>
+    <row r="554" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A554" t="s">
+        <v>0</v>
+      </c>
+      <c r="B554">
+        <v>1817</v>
+      </c>
+      <c r="C554" s="2">
+        <v>45252</v>
+      </c>
+    </row>
+    <row r="555" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A555" t="s">
+        <v>0</v>
+      </c>
+      <c r="B555">
+        <v>1658</v>
+      </c>
+      <c r="C555" s="2">
+        <v>45253</v>
+      </c>
+    </row>
+    <row r="556" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A556" t="s">
+        <v>0</v>
+      </c>
+      <c r="B556">
+        <v>1515</v>
+      </c>
+      <c r="C556" s="2">
+        <v>45254</v>
+      </c>
+    </row>
+    <row r="557" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A557" t="s">
+        <v>0</v>
+      </c>
+      <c r="B557">
+        <v>1611</v>
+      </c>
+      <c r="C557" s="2">
+        <v>45255</v>
+      </c>
+    </row>
+    <row r="558" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A558" t="s">
+        <v>0</v>
+      </c>
+      <c r="B558">
+        <v>1741</v>
+      </c>
+      <c r="C558" s="2">
+        <v>45256</v>
+      </c>
+    </row>
+    <row r="559" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A559" t="s">
+        <v>0</v>
+      </c>
+      <c r="B559">
+        <v>1928</v>
+      </c>
+      <c r="C559" s="2">
+        <v>45257</v>
+      </c>
+    </row>
+    <row r="560" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A560" t="s">
+        <v>0</v>
+      </c>
+      <c r="B560">
+        <v>1991</v>
+      </c>
+      <c r="C560" s="2">
+        <v>45258</v>
+      </c>
+    </row>
+    <row r="561" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A561" t="s">
+        <v>0</v>
+      </c>
+      <c r="B561">
+        <v>1965</v>
+      </c>
+      <c r="C561" s="2">
+        <v>45259</v>
+      </c>
+    </row>
+    <row r="562" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A562" t="s">
+        <v>0</v>
+      </c>
+      <c r="B562">
+        <v>1639</v>
+      </c>
+      <c r="C562" s="2">
+        <v>45260</v>
+      </c>
+    </row>
+    <row r="563" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A563" t="s">
+        <v>0</v>
+      </c>
+      <c r="B563">
+        <v>2038</v>
+      </c>
+      <c r="C563" s="2">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="564" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A564" t="s">
+        <v>0</v>
+      </c>
+      <c r="B564">
+        <v>1788</v>
+      </c>
+      <c r="C564" s="2">
+        <v>45262</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A565" t="s">
+        <v>0</v>
+      </c>
+      <c r="B565">
+        <v>1887</v>
+      </c>
+      <c r="C565" s="2">
+        <v>45263</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A566" t="s">
+        <v>0</v>
+      </c>
+      <c r="B566">
+        <v>1756</v>
+      </c>
+      <c r="C566" s="2">
+        <v>45264</v>
+      </c>
+    </row>
+    <row r="567" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A567" t="s">
+        <v>0</v>
+      </c>
+      <c r="B567">
+        <v>1779</v>
+      </c>
+      <c r="C567" s="2">
+        <v>45265</v>
+      </c>
+    </row>
+    <row r="568" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A568" t="s">
+        <v>0</v>
+      </c>
+      <c r="B568">
+        <v>1689</v>
+      </c>
+      <c r="C568" s="2">
+        <v>45266</v>
+      </c>
+    </row>
+    <row r="569" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A569" t="s">
+        <v>0</v>
+      </c>
+      <c r="B569">
+        <v>1861</v>
+      </c>
+      <c r="C569" s="2">
+        <v>45267</v>
+      </c>
+    </row>
+    <row r="570" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A570" t="s">
+        <v>0</v>
+      </c>
+      <c r="B570">
+        <v>2030</v>
+      </c>
+      <c r="C570" s="2">
+        <v>45268</v>
+      </c>
+    </row>
+    <row r="571" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A571" t="s">
+        <v>0</v>
+      </c>
+      <c r="B571">
+        <v>1741</v>
+      </c>
+      <c r="C571" s="2">
+        <v>45269</v>
+      </c>
+    </row>
+    <row r="572" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A572" t="s">
+        <v>0</v>
+      </c>
+      <c r="B572">
+        <v>1804</v>
+      </c>
+      <c r="C572" s="2">
+        <v>45270</v>
       </c>
     </row>
   </sheetData>
